--- a/extensions/icdm2016/doc-Experiments/BetasAnalysis.xlsx
+++ b/extensions/icdm2016/doc-Experiments/BetasAnalysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Var04" sheetId="1" r:id="rId1"/>
@@ -172,9 +172,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -453,8 +454,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2132402552"/>
-        <c:axId val="-2132517816"/>
+        <c:axId val="2124873672"/>
+        <c:axId val="2124701960"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -686,11 +687,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2132657304"/>
-        <c:axId val="2126439880"/>
+        <c:axId val="2124691016"/>
+        <c:axId val="2124692376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2132402552"/>
+        <c:axId val="2124873672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -699,7 +700,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132517816"/>
+        <c:crossAx val="2124701960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -707,7 +708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2132517816"/>
+        <c:axId val="2124701960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -718,12 +719,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132402552"/>
+        <c:crossAx val="2124873672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2126439880"/>
+        <c:axId val="2124692376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -733,12 +734,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132657304"/>
+        <c:crossAx val="2124691016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2132657304"/>
+        <c:axId val="2124691016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -747,7 +748,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126439880"/>
+        <c:crossAx val="2124692376"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1018,8 +1020,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2146070712"/>
-        <c:axId val="-2145786136"/>
+        <c:axId val="-2105603592"/>
+        <c:axId val="-2105629480"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1251,11 +1253,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2123780696"/>
-        <c:axId val="-2123793832"/>
+        <c:axId val="-2105641336"/>
+        <c:axId val="-2105644632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2146070712"/>
+        <c:axId val="-2105603592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1264,7 +1266,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145786136"/>
+        <c:crossAx val="-2105629480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1272,7 +1274,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2145786136"/>
+        <c:axId val="-2105629480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1283,12 +1285,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146070712"/>
+        <c:crossAx val="-2105603592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2123793832"/>
+        <c:axId val="-2105644632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,12 +1300,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123780696"/>
+        <c:crossAx val="-2105641336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2123780696"/>
+        <c:axId val="-2105641336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1312,7 +1314,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123793832"/>
+        <c:crossAx val="-2105644632"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1583,8 +1586,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2128149144"/>
-        <c:axId val="-2123886536"/>
+        <c:axId val="-2105678200"/>
+        <c:axId val="-2105681160"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1816,11 +1819,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2134438872"/>
-        <c:axId val="-2124406248"/>
+        <c:axId val="-2105692696"/>
+        <c:axId val="-2105687912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2128149144"/>
+        <c:axId val="-2105678200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1829,7 +1832,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123886536"/>
+        <c:crossAx val="-2105681160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1837,7 +1840,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2123886536"/>
+        <c:axId val="-2105681160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1848,12 +1851,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128149144"/>
+        <c:crossAx val="-2105678200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2124406248"/>
+        <c:axId val="-2105687912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1863,12 +1866,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2134438872"/>
+        <c:crossAx val="-2105692696"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2134438872"/>
+        <c:axId val="-2105692696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1877,7 +1880,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124406248"/>
+        <c:crossAx val="-2105687912"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2148,8 +2152,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2124390152"/>
-        <c:axId val="-2123385080"/>
+        <c:axId val="-2105737640"/>
+        <c:axId val="-2105734664"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2381,11 +2385,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2130557016"/>
-        <c:axId val="-2130560264"/>
+        <c:axId val="-2105728328"/>
+        <c:axId val="-2105731624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2124390152"/>
+        <c:axId val="-2105737640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2394,7 +2398,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123385080"/>
+        <c:crossAx val="-2105734664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2402,7 +2406,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2123385080"/>
+        <c:axId val="-2105734664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2413,12 +2417,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124390152"/>
+        <c:crossAx val="-2105737640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2130560264"/>
+        <c:axId val="-2105731624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2428,12 +2432,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130557016"/>
+        <c:crossAx val="-2105728328"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2130557016"/>
+        <c:axId val="-2105728328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2442,12 +2446,1841 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130560264"/>
+        <c:crossAx val="-2105731624"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VAR04realMean_c0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>All!$BC$2:$BC$64</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>39173.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39234.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39264.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39295.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39326.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39356.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39417.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39448.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39479.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39508.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39539.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39600.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39630.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39661.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39692.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39722.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39783.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39814.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39845.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39873.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39904.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39965.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39995.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40026.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40057.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40087.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40148.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40179.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40210.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40238.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40269.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40330.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40360.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40391.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40422.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40452.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40513.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40544.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40603.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40634.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40695.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40725.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40787.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40817.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40878.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40909.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40969.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41000.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41061.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41091.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41153.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41183.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41244.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41275.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41334.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41365.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41426.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41456.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41518.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41548.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41609.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41640.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41699.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$Y$2:$Y$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>7694.21171272814</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7828.55519804247</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7733.67179326886</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7446.26437989178</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7098.48968022133</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6749.95521058557</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6577.40987760912</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6808.08823173773</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6857.93660953426</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7002.7463913285</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6839.51986471658</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6892.05427954521</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6738.11065461615</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6527.95270386916</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6078.32396467676</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5824.8384385476</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5560.37533513424</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5903.9899468281</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6058.25454505332</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6261.28805328017</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6594.86620421412</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6768.60457411448</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6954.24134154924</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6833.91825740203</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6498.03653842321</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6225.57711357396</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6093.47841071248</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6270.54961710211</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6423.52863394221</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6787.17335275431</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7210.88754596436</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7312.91385547112</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7513.98561803452</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7132.91941213626</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6663.56093104635</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6475.39851390315</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6236.59385651162</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6694.36739455941</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6740.92039735835</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7196.10663719397</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7301.6630473385</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7405.44074767126</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7162.11024270825</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6464.89779929553</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6351.9861344894</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6585.46084308944</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6706.87790375759</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7334.54933734216</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7531.8943808341</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7476.59209485852</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7462.57739260835</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6661.53681191694</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6586.99486057685</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6945.7789788785</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7273.13163668445</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7881.22797444528</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8266.1906118676</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8457.401774609431</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8181.63592319347</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7607.60597662911</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7540.37932172583</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7843.41774695486</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8402.556977908251</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VAR04learntMean_c0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>All!$BC$2:$BC$64</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>39173.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39234.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39264.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39295.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39326.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39356.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39417.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39448.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39479.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39508.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39539.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39600.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39630.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39661.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39692.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39722.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39783.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39814.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39845.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39873.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39904.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39965.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39995.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40026.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40057.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40087.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40148.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40179.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40210.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40238.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40269.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40330.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40360.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40391.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40422.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40452.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40513.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40544.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40603.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40634.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40695.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40725.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40787.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40817.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40878.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40909.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40969.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41000.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41061.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41091.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41153.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41183.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41244.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41275.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41334.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41365.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41426.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41456.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41518.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41548.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41609.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41640.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41699.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$Z$2:$Z$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>7695.7140322161</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7784.89185575571</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7757.77546354365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7629.62949795957</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7420.66072940442</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7182.90685226266</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6978.38267408951</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6927.97464193859</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6905.09635931539</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6925.88516054591</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6896.55743327611</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6881.65138135161</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6838.48259176657</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6747.54507959365</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6564.03197563376</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6372.53512955731</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6132.61290144952</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6057.50110290833</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6044.36074755168</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6098.24555447676</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6207.45709776357</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6307.91812402144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6422.86296896232</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6456.09222505439</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6418.44893345237</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6343.75820186404</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6256.43491792965</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6214.7339164793</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6221.09375842845</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6294.62758263153</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6407.56481532786</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6505.23746120889</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6610.0862929725</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6625.81893303793</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6582.27126503221</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6532.89869785697</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6465.21812523554</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6486.32237710227</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6493.9481966545</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6562.54238166842</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6620.42152799693</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6689.7024238391</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6713.10036352216</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6663.14925503929</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6599.53061306916</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6576.82503965075</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6557.12119457358</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6608.85355620803</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6682.21214543166</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6740.85381081911</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6774.38889701493</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6744.07264269675</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6714.62474864722</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6731.2591870353</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6756.87427636299</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6836.5009746102</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6916.0093408313</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7000.34588145554</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7033.09942929489</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7053.59496704628</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7058.71853244927</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7087.60934231537</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7137.04907257257</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2132347624"/>
+        <c:axId val="-2132652472"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="-2132347624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2132652472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="-2132652472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2132347624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$AG$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VAR07realMean_c0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>All!$BC$2:$BC$64</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>39173.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39234.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39264.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39295.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39326.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39356.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39417.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39448.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39479.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39508.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39539.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39600.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39630.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39661.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39692.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39722.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39783.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39814.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39845.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39873.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39904.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39965.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39995.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40026.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40057.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40087.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40148.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40179.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40210.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40238.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40269.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40330.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40360.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40391.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40422.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40452.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40513.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40544.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40603.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40634.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40695.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40725.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40787.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40817.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40878.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40909.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40969.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41000.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41061.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41091.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41153.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41183.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41244.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41275.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41334.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41365.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41426.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41456.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41518.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41548.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41609.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41640.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41699.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$AG$2:$AG$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>18393.3734110768</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18576.6235895492</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18821.7554070406</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19197.1048084072</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19218.748264169</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19324.4943747204</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19544.6461585356</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19514.0650999833</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19781.368561025</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19596.6500055548</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19825.3632672448</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19948.6428171949</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20056.6569974622</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20400.9879942454</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20265.6622453364</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20544.0746249087</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20642.1196352402</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20425.4771513999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20538.5503502758</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20401.4804605671</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20638.7780531956</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20695.65291084</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21150.3467223969</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21626.3545983844</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21405.1017899995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21502.5289562579</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21623.9291393401</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21322.5195710296</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21523.22596838</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21236.2289061828</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21582.0540807837</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21402.5695920533</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21473.1751816836</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>21340.9067809266</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21138.5736394572</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21296.7620692274</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21499.5323527689</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21212.3685714679</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21137.6200859228</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21007.1088551528</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20973.8923574773</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20639.2765139861</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20636.7155526334</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20411.751434905</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20458.3231337099</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20137.4970215689</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20076.9999660949</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19998.5813664729</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19922.9344919407</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19586.3907042887</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>19889.9270797376</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19692.7320380755</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>19622.8493085652</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19269.5023020114</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>19372.5464618226</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19123.2637540701</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>19029.8581940592</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>18803.6452885291</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19177.9600954417</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>18938.7571608192</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19284.6160994186</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>18742.6648919242</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>19351.2824443302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$AH$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VAR07learntMean_c0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>All!$BC$2:$BC$64</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>39173.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39234.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39264.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39295.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39326.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39356.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39417.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39448.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39479.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39508.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39539.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39600.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39630.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39661.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39692.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39722.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39783.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39814.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39845.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39873.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39904.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39965.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39995.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40026.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40057.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40087.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40148.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40179.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40210.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40238.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40269.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40330.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40360.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40391.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40422.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40452.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40513.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40544.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40603.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40634.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40695.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40725.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40787.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40817.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40878.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40909.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40969.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41000.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41061.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41091.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41153.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41183.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41244.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41275.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41334.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41365.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41426.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41456.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41518.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41548.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41609.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41640.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41699.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$AH$2:$AH$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>18391.1209555391</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18519.3733094365</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18669.6902707733</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18883.6075246252</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19026.7832799246</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19133.6730081565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19271.737303153</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19338.7237756064</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19448.6025503506</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19481.4694932682</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19564.1481586997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19654.5371140644</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19749.2340659075</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19911.5432356692</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20056.6274487417</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20211.6839839536</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20393.7808852488</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20438.6302669573</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20470.4998278913</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20436.9647379671</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20411.3009375632</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20401.2787624331</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20411.5241740608</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20530.5621979949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20675.3647471575</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20838.6848162429</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21010.8368951112</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21113.2571643007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21173.9893336255</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21146.0372476726</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21111.6943847735</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21077.0084813806</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21030.5912572298</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>21094.8497001317</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21203.6317148255</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21304.6202867248</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21420.2576377276</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21397.7566038812</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21405.8316906628</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21330.4415291926</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>21280.6347300625</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21189.0460696506</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21168.1063013184</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21221.5030854456</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21294.4934355752</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21287.9485922917</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21289.9409659936</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>21212.3240666464</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>21100.6908173354</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20994.2855931703</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20954.6357111837</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20959.1453370339</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20951.1547412328</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>20868.5460425998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>20809.5865357802</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>20681.9368307341</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>20581.8147865303</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>20467.8842661194</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>20458.087359811</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20411.7436018178</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20408.4691456293</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>20356.2595666226</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>20320.688544284</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2086056328"/>
+        <c:axId val="-2141758136"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="-2086056328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2141758136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="-2141758136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2086056328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -2713,8 +4546,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2126042904"/>
-        <c:axId val="-2126252792"/>
+        <c:axId val="2124647848"/>
+        <c:axId val="2124644312"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2946,11 +4779,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2140748120"/>
-        <c:axId val="-2140717064"/>
+        <c:axId val="2124636056"/>
+        <c:axId val="2124640424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2126042904"/>
+        <c:axId val="2124647848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2959,7 +4792,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126252792"/>
+        <c:crossAx val="2124644312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2967,7 +4800,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2126252792"/>
+        <c:axId val="2124644312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2978,12 +4811,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126042904"/>
+        <c:crossAx val="2124647848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2140717064"/>
+        <c:axId val="2124640424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2993,12 +4826,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140748120"/>
+        <c:crossAx val="2124636056"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2140748120"/>
+        <c:axId val="2124636056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3007,7 +4840,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140717064"/>
+        <c:crossAx val="2124640424"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4131,11 +5965,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2131781512"/>
-        <c:axId val="-2132516536"/>
+        <c:axId val="-2108410776"/>
+        <c:axId val="2038354616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2131781512"/>
+        <c:axId val="-2108410776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4144,7 +5978,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132516536"/>
+        <c:crossAx val="2038354616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4152,7 +5986,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2132516536"/>
+        <c:axId val="2038354616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4163,7 +5997,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131781512"/>
+        <c:crossAx val="-2108410776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4436,11 +6270,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2120989560"/>
-        <c:axId val="-2145641448"/>
+        <c:axId val="-2088072696"/>
+        <c:axId val="-2088069768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2120989560"/>
+        <c:axId val="-2088072696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4449,7 +6283,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145641448"/>
+        <c:crossAx val="-2088069768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4457,7 +6291,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2145641448"/>
+        <c:axId val="-2088069768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4468,7 +6302,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120989560"/>
+        <c:crossAx val="-2088072696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4737,8 +6571,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2132071288"/>
-        <c:axId val="-2132065048"/>
+        <c:axId val="-2105682856"/>
+        <c:axId val="-2105721912"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4970,11 +6804,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2130852552"/>
-        <c:axId val="-2136464312"/>
+        <c:axId val="-2106023416"/>
+        <c:axId val="-2105985768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2132071288"/>
+        <c:axId val="-2105682856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4983,7 +6817,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132065048"/>
+        <c:crossAx val="-2105721912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4991,7 +6825,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2132065048"/>
+        <c:axId val="-2105721912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5002,12 +6836,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132071288"/>
+        <c:crossAx val="-2105682856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2136464312"/>
+        <c:axId val="-2105985768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5017,12 +6851,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130852552"/>
+        <c:crossAx val="-2106023416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2130852552"/>
+        <c:axId val="-2106023416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5031,7 +6865,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2136464312"/>
+        <c:crossAx val="-2105985768"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -5040,7 +6875,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5312,8 +7146,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2132170744"/>
-        <c:axId val="-2133723048"/>
+        <c:axId val="-2105941560"/>
+        <c:axId val="-2105685288"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5545,11 +7379,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2128512008"/>
-        <c:axId val="-2128519256"/>
+        <c:axId val="-2106513000"/>
+        <c:axId val="-2106233592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2132170744"/>
+        <c:axId val="-2105941560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5558,7 +7392,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133723048"/>
+        <c:crossAx val="-2105685288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5566,7 +7400,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2133723048"/>
+        <c:axId val="-2105685288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5577,12 +7411,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132170744"/>
+        <c:crossAx val="-2105941560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2128519256"/>
+        <c:axId val="-2106233592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5592,12 +7426,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128512008"/>
+        <c:crossAx val="-2106513000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2128512008"/>
+        <c:axId val="-2106513000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5606,7 +7440,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128519256"/>
+        <c:crossAx val="-2106233592"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -5615,7 +7450,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6088,11 +7922,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2127676792"/>
-        <c:axId val="-2128540488"/>
+        <c:axId val="-2105569400"/>
+        <c:axId val="-2105572120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2127676792"/>
+        <c:axId val="-2105569400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6101,7 +7935,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128540488"/>
+        <c:crossAx val="-2105572120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6109,7 +7943,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2128540488"/>
+        <c:axId val="-2105572120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -6121,14 +7955,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127676792"/>
+        <c:crossAx val="-2105569400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6601,11 +8434,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2133774680"/>
-        <c:axId val="-2128135528"/>
+        <c:axId val="-2105622872"/>
+        <c:axId val="-2105619896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2133774680"/>
+        <c:axId val="-2105622872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6614,7 +8447,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128135528"/>
+        <c:crossAx val="-2105619896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6622,7 +8455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2128135528"/>
+        <c:axId val="-2105619896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -6635,14 +8468,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133774680"/>
+        <c:crossAx val="-2105622872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6904,8 +8736,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2132573768"/>
-        <c:axId val="-2127509496"/>
+        <c:axId val="-2088011896"/>
+        <c:axId val="-2088008920"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7137,11 +8969,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128278920"/>
-        <c:axId val="2128276776"/>
+        <c:axId val="-2088002584"/>
+        <c:axId val="-2088005880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2132573768"/>
+        <c:axId val="-2088011896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7150,7 +8982,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127509496"/>
+        <c:crossAx val="-2088008920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7158,7 +8990,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127509496"/>
+        <c:axId val="-2088008920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7169,12 +9001,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132573768"/>
+        <c:crossAx val="-2088011896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2128276776"/>
+        <c:axId val="-2088005880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7184,12 +9016,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128278920"/>
+        <c:crossAx val="-2088002584"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2128278920"/>
+        <c:axId val="-2088002584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7198,7 +9030,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128276776"/>
+        <c:crossAx val="-2088005880"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -7594,6 +9427,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7921,7 +9814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
@@ -8038,15 +9931,15 @@
         <v>-32.017023195575447</v>
       </c>
       <c r="M4">
-        <f>100*(G4-G3)/G3</f>
+        <f t="shared" ref="M4:M35" si="0">100*(G4-G3)/G3</f>
         <v>-8.7760092612378188E-2</v>
       </c>
       <c r="N4">
-        <f>100*(H4-H3)/H3</f>
+        <f t="shared" ref="N4:N35" si="1">100*(H4-H3)/H3</f>
         <v>-0.39006462441404749</v>
       </c>
       <c r="O4">
-        <f>100*(I4-I3)/I3</f>
+        <f t="shared" ref="O4:O35" si="2">100*(I4-I3)/I3</f>
         <v>-1.2692668185282929</v>
       </c>
     </row>
@@ -8079,23 +9972,23 @@
         <v>12.156927559587601</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K65" si="0">100*(C5-C4)/C4</f>
+        <f t="shared" ref="K5:K65" si="3">100*(C5-C4)/C4</f>
         <v>-0.18567934269292569</v>
       </c>
       <c r="L5">
-        <f>100*(D5-D4)/D4</f>
+        <f t="shared" ref="L5:L19" si="4">100*(D5-D4)/D4</f>
         <v>14.807098234006155</v>
       </c>
       <c r="M5">
-        <f>100*(G5-G4)/G4</f>
+        <f t="shared" si="0"/>
         <v>-0.54819947252585566</v>
       </c>
       <c r="N5">
-        <f>100*(H5-H4)/H4</f>
+        <f t="shared" si="1"/>
         <v>4.4145268503451769</v>
       </c>
       <c r="O5">
-        <f>100*(I5-I4)/I4</f>
+        <f t="shared" si="2"/>
         <v>-0.48076664158538374</v>
       </c>
     </row>
@@ -8128,23 +10021,23 @@
         <v>12.389121370622201</v>
       </c>
       <c r="K6">
+        <f t="shared" si="3"/>
+        <v>-0.83621016958570349</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>63.011889615044566</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="0"/>
-        <v>-0.83621016958570349</v>
-      </c>
-      <c r="L6">
-        <f>100*(D6-D5)/D5</f>
-        <v>63.011889615044566</v>
-      </c>
-      <c r="M6">
-        <f>100*(G6-G5)/G5</f>
         <v>-1.3589934245786928</v>
       </c>
       <c r="N6">
-        <f>100*(H6-H5)/H5</f>
+        <f t="shared" si="1"/>
         <v>11.839267572909796</v>
       </c>
       <c r="O6">
-        <f>100*(I6-I5)/I5</f>
+        <f t="shared" si="2"/>
         <v>1.9099711657941041</v>
       </c>
     </row>
@@ -8177,23 +10070,23 @@
         <v>13.1934339715022</v>
       </c>
       <c r="K7">
+        <f t="shared" si="3"/>
+        <v>-1.1611235938693563</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>56.608470124112891</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="0"/>
-        <v>-1.1611235938693563</v>
-      </c>
-      <c r="L7">
-        <f>100*(D7-D6)/D6</f>
-        <v>56.608470124112891</v>
-      </c>
-      <c r="M7">
-        <f>100*(G7-G6)/G6</f>
         <v>1.704955715094957</v>
       </c>
       <c r="N7">
-        <f>100*(H7-H6)/H6</f>
+        <f t="shared" si="1"/>
         <v>-14.362587939340539</v>
       </c>
       <c r="O7">
-        <f>100*(I7-I6)/I6</f>
+        <f t="shared" si="2"/>
         <v>6.492087508216942</v>
       </c>
     </row>
@@ -8226,23 +10119,23 @@
         <v>14.807187773760401</v>
       </c>
       <c r="K8">
+        <f t="shared" si="3"/>
+        <v>-1.2248850463901562</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>41.042622001833045</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="0"/>
-        <v>-1.2248850463901562</v>
-      </c>
-      <c r="L8">
-        <f>100*(D8-D7)/D7</f>
-        <v>41.042622001833045</v>
-      </c>
-      <c r="M8">
-        <f>100*(G8-G7)/G7</f>
         <v>-2.6002205915879153</v>
       </c>
       <c r="N8">
-        <f>100*(H8-H7)/H7</f>
+        <f t="shared" si="1"/>
         <v>28.555300779878106</v>
       </c>
       <c r="O8">
-        <f>100*(I8-I7)/I7</f>
+        <f t="shared" si="2"/>
         <v>12.23149185984412</v>
       </c>
     </row>
@@ -8275,23 +10168,23 @@
         <v>16.5052375272723</v>
       </c>
       <c r="K9">
+        <f t="shared" si="3"/>
+        <v>-0.89409988988486033</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>22.112894951809825</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="0"/>
-        <v>-0.89409988988486033</v>
-      </c>
-      <c r="L9">
-        <f>100*(D9-D8)/D8</f>
-        <v>22.112894951809825</v>
-      </c>
-      <c r="M9">
-        <f>100*(G9-G8)/G8</f>
         <v>-3.4814984428183893</v>
       </c>
       <c r="N9">
-        <f>100*(H9-H8)/H8</f>
+        <f t="shared" si="1"/>
         <v>31.255753541003958</v>
       </c>
       <c r="O9">
-        <f>100*(I9-I8)/I8</f>
+        <f t="shared" si="2"/>
         <v>11.467739718415594</v>
       </c>
     </row>
@@ -8324,23 +10217,23 @@
         <v>16.909110151819799</v>
       </c>
       <c r="K10">
+        <f t="shared" si="3"/>
+        <v>-0.18018490022342501</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>3.3768006282137293</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="0"/>
-        <v>-0.18018490022342501</v>
-      </c>
-      <c r="L10">
-        <f>100*(D10-D9)/D9</f>
-        <v>3.3768006282137293</v>
-      </c>
-      <c r="M10">
-        <f>100*(G10-G9)/G9</f>
         <v>-2.5518989895561917</v>
       </c>
       <c r="N10">
-        <f>100*(H10-H9)/H9</f>
+        <f t="shared" si="1"/>
         <v>16.413558092739311</v>
       </c>
       <c r="O10">
-        <f>100*(I10-I9)/I9</f>
+        <f t="shared" si="2"/>
         <v>2.4469361551456861</v>
       </c>
     </row>
@@ -8373,23 +10266,23 @@
         <v>16.980935679152001</v>
       </c>
       <c r="K11">
+        <f t="shared" si="3"/>
+        <v>-4.5712469529965313E-2</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>0.70823523380876419</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="0"/>
-        <v>-4.5712469529965313E-2</v>
-      </c>
-      <c r="L11">
-        <f>100*(D11-D10)/D10</f>
-        <v>0.70823523380876419</v>
-      </c>
-      <c r="M11">
-        <f>100*(G11-G10)/G10</f>
         <v>0.26178151997884258</v>
       </c>
       <c r="N11">
-        <f>100*(H11-H10)/H10</f>
+        <f t="shared" si="1"/>
         <v>-1.3932228907699646</v>
       </c>
       <c r="O11">
-        <f>100*(I11-I10)/I10</f>
+        <f t="shared" si="2"/>
         <v>0.42477414061006308</v>
       </c>
     </row>
@@ -8422,23 +10315,23 @@
         <v>16.681605507761802</v>
       </c>
       <c r="K12">
+        <f t="shared" si="3"/>
+        <v>0.1359969278279281</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>-2.2607152181574137</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="0"/>
-        <v>0.1359969278279281</v>
-      </c>
-      <c r="L12">
-        <f>100*(D12-D11)/D11</f>
-        <v>-2.2607152181574137</v>
-      </c>
-      <c r="M12">
-        <f>100*(G12-G11)/G11</f>
         <v>-1.7258698073928309</v>
       </c>
       <c r="N12">
-        <f>100*(H12-H11)/H11</f>
+        <f t="shared" si="1"/>
         <v>8.245618177633034</v>
       </c>
       <c r="O12">
-        <f>100*(I12-I11)/I11</f>
+        <f t="shared" si="2"/>
         <v>-1.7627425075150351</v>
       </c>
     </row>
@@ -8471,23 +10364,23 @@
         <v>16.915136385744901</v>
       </c>
       <c r="K13">
+        <f t="shared" si="3"/>
+        <v>-8.1811345614494255E-2</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>1.2620793875493999</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="0"/>
-        <v>-8.1811345614494255E-2</v>
-      </c>
-      <c r="L13">
-        <f>100*(D13-D12)/D12</f>
-        <v>1.2620793875493999</v>
-      </c>
-      <c r="M13">
-        <f>100*(G13-G12)/G12</f>
         <v>-1.6887400970630495</v>
       </c>
       <c r="N13">
-        <f>100*(H13-H12)/H12</f>
+        <f t="shared" si="1"/>
         <v>7.1177660419988094</v>
       </c>
       <c r="O13">
-        <f>100*(I13-I12)/I12</f>
+        <f t="shared" si="2"/>
         <v>1.3999304675706408</v>
       </c>
     </row>
@@ -8520,23 +10413,23 @@
         <v>16.9335013240898</v>
       </c>
       <c r="K14">
+        <f t="shared" si="3"/>
+        <v>-3.6918813967690856E-3</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>1.1145777660497286E-2</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="0"/>
-        <v>-3.6918813967690856E-3</v>
-      </c>
-      <c r="L14">
-        <f>100*(D14-D13)/D13</f>
-        <v>1.1145777660497286E-2</v>
-      </c>
-      <c r="M14">
-        <f>100*(G14-G13)/G13</f>
         <v>-0.85369099698241246</v>
       </c>
       <c r="N14">
-        <f>100*(H14-H13)/H13</f>
+        <f t="shared" si="1"/>
         <v>3.1526954486811838</v>
       </c>
       <c r="O14">
-        <f>100*(I14-I13)/I13</f>
+        <f t="shared" si="2"/>
         <v>0.10857103322191139</v>
       </c>
     </row>
@@ -8569,23 +10462,23 @@
         <v>17.3846143855808</v>
       </c>
       <c r="K15">
+        <f t="shared" si="3"/>
+        <v>-0.14161602340734711</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>2.1366406916493923</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="0"/>
-        <v>-0.14161602340734711</v>
-      </c>
-      <c r="L15">
-        <f>100*(D15-D14)/D14</f>
-        <v>2.1366406916493923</v>
-      </c>
-      <c r="M15">
-        <f>100*(G15-G14)/G14</f>
         <v>-1.7745569131708143</v>
       </c>
       <c r="N15">
-        <f>100*(H15-H14)/H14</f>
+        <f t="shared" si="1"/>
         <v>6.3188360343948942</v>
       </c>
       <c r="O15">
-        <f>100*(I15-I14)/I14</f>
+        <f t="shared" si="2"/>
         <v>2.6640270836914359</v>
       </c>
     </row>
@@ -8618,23 +10511,23 @@
         <v>18.275424663791298</v>
       </c>
       <c r="K16">
+        <f t="shared" si="3"/>
+        <v>-0.27073942829724129</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>4.1172550496080866</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="0"/>
-        <v>-0.27073942829724129</v>
-      </c>
-      <c r="L16">
-        <f>100*(D16-D15)/D15</f>
-        <v>4.1172550496080866</v>
-      </c>
-      <c r="M16">
-        <f>100*(G16-G15)/G15</f>
         <v>-1.4392116381570808</v>
       </c>
       <c r="N16">
-        <f>100*(H16-H15)/H15</f>
+        <f t="shared" si="1"/>
         <v>4.8260322735246612</v>
       </c>
       <c r="O16">
-        <f>100*(I16-I15)/I15</f>
+        <f t="shared" si="2"/>
         <v>5.1241302133762421</v>
       </c>
     </row>
@@ -8667,23 +10560,23 @@
         <v>20.232448285590799</v>
       </c>
       <c r="K17">
+        <f t="shared" si="3"/>
+        <v>-0.54065142265228106</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>8.4488020833015955</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="0"/>
-        <v>-0.54065142265228106</v>
-      </c>
-      <c r="L17">
-        <f>100*(D17-D16)/D16</f>
-        <v>8.4488020833015955</v>
-      </c>
-      <c r="M17">
-        <f>100*(G17-G16)/G16</f>
         <v>-1.4036835929649099</v>
       </c>
       <c r="N17">
-        <f>100*(H17-H16)/H16</f>
+        <f t="shared" si="1"/>
         <v>4.8041531683134808</v>
       </c>
       <c r="O17">
-        <f>100*(I17-I16)/I16</f>
+        <f t="shared" si="2"/>
         <v>10.708498750657808</v>
       </c>
     </row>
@@ -8716,23 +10609,23 @@
         <v>22.3658620745787</v>
       </c>
       <c r="K18">
+        <f t="shared" si="3"/>
+        <v>-0.54556268646687744</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>8.250631932713576</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="0"/>
-        <v>-0.54556268646687744</v>
-      </c>
-      <c r="L18">
-        <f>100*(D18-D17)/D17</f>
-        <v>8.250631932713576</v>
-      </c>
-      <c r="M18">
-        <f>100*(G18-G17)/G17</f>
         <v>-0.26102974190256845</v>
       </c>
       <c r="N18">
-        <f>100*(H18-H17)/H17</f>
+        <f t="shared" si="1"/>
         <v>0.99316663565402941</v>
       </c>
       <c r="O18">
-        <f>100*(I18-I17)/I17</f>
+        <f t="shared" si="2"/>
         <v>10.544516209179104</v>
       </c>
     </row>
@@ -8765,23 +10658,23 @@
         <v>24.649091825749998</v>
       </c>
       <c r="K19">
+        <f t="shared" si="3"/>
+        <v>-0.54060121185327403</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>7.7903728948360893</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="0"/>
-        <v>-0.54060121185327403</v>
-      </c>
-      <c r="L19">
-        <f>100*(D19-D18)/D18</f>
-        <v>7.7903728948360893</v>
-      </c>
-      <c r="M19">
-        <f>100*(G19-G18)/G18</f>
         <v>2.8645710916703669E-2</v>
       </c>
       <c r="N19">
-        <f>100*(H19-H18)/H18</f>
+        <f t="shared" si="1"/>
         <v>5.7697225084324517E-2</v>
       </c>
       <c r="O19">
-        <f>100*(I19-I18)/I18</f>
+        <f t="shared" si="2"/>
         <v>10.208547935947632</v>
       </c>
     </row>
@@ -8814,23 +10707,23 @@
         <v>25.2642454682316</v>
       </c>
       <c r="K20">
+        <f t="shared" si="3"/>
+        <v>-0.14863310512420852</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ref="L20:L65" si="5">100*(D20-D19)/D19</f>
+        <v>1.8822532921874455</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="0"/>
-        <v>-0.14863310512420852</v>
-      </c>
-      <c r="L20">
-        <f t="shared" ref="L20:L65" si="1">100*(D20-D19)/D19</f>
-        <v>1.8822532921874455</v>
-      </c>
-      <c r="M20">
-        <f>100*(G20-G19)/G19</f>
         <v>0.49881974001393392</v>
       </c>
       <c r="N20">
-        <f>100*(H20-H19)/H19</f>
+        <f t="shared" si="1"/>
         <v>-1.5281377945338126</v>
       </c>
       <c r="O20">
-        <f>100*(I20-I19)/I19</f>
+        <f t="shared" si="2"/>
         <v>2.4956442486005637</v>
       </c>
     </row>
@@ -8863,23 +10756,23 @@
         <v>25.273123761861399</v>
       </c>
       <c r="K21">
+        <f t="shared" si="3"/>
+        <v>-7.5467283622661372E-3</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="5"/>
+        <v>7.3065923283124112E-2</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="0"/>
-        <v>-7.5467283622661372E-3</v>
-      </c>
-      <c r="L21">
+        <v>0.42721147426484557</v>
+      </c>
+      <c r="N21">
         <f t="shared" si="1"/>
-        <v>7.3065923283124112E-2</v>
-      </c>
-      <c r="M21">
-        <f>100*(G21-G20)/G20</f>
-        <v>0.42721147426484557</v>
-      </c>
-      <c r="N21">
-        <f>100*(H21-H20)/H20</f>
         <v>-1.277708898176332</v>
       </c>
       <c r="O21">
-        <f>100*(I21-I20)/I20</f>
+        <f t="shared" si="2"/>
         <v>3.5141732773942634E-2</v>
       </c>
     </row>
@@ -8912,23 +10805,23 @@
         <v>24.729311199603799</v>
       </c>
       <c r="K22">
+        <f t="shared" si="3"/>
+        <v>0.11606076998669543</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="5"/>
+        <v>-1.2644709213935221</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="0"/>
-        <v>0.11606076998669543</v>
-      </c>
-      <c r="L22">
+        <v>0.76604614320447817</v>
+      </c>
+      <c r="N22">
         <f t="shared" si="1"/>
-        <v>-1.2644709213935221</v>
-      </c>
-      <c r="M22">
-        <f>100*(G22-G21)/G21</f>
-        <v>0.76604614320447817</v>
-      </c>
-      <c r="N22">
-        <f>100*(H22-H21)/H21</f>
         <v>-2.1749864521706774</v>
       </c>
       <c r="O22">
-        <f>100*(I22-I21)/I21</f>
+        <f t="shared" si="2"/>
         <v>-2.151742568040774</v>
       </c>
     </row>
@@ -8961,23 +10854,23 @@
         <v>23.4965902073181</v>
       </c>
       <c r="K23">
+        <f t="shared" si="3"/>
+        <v>0.27445015527543887</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="5"/>
+        <v>-2.7294834824264624</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="0"/>
-        <v>0.27445015527543887</v>
-      </c>
-      <c r="L23">
+        <v>0.73031420047924889</v>
+      </c>
+      <c r="N23">
         <f t="shared" si="1"/>
-        <v>-2.7294834824264624</v>
-      </c>
-      <c r="M23">
-        <f>100*(G23-G22)/G22</f>
-        <v>0.73031420047924889</v>
-      </c>
-      <c r="N23">
-        <f>100*(H23-H22)/H22</f>
         <v>-1.9317853768738391</v>
       </c>
       <c r="O23">
-        <f>100*(I23-I22)/I22</f>
+        <f t="shared" si="2"/>
         <v>-4.9848577760040866</v>
       </c>
     </row>
@@ -9010,23 +10903,23 @@
         <v>22.131454190731802</v>
       </c>
       <c r="K24">
+        <f t="shared" si="3"/>
+        <v>0.29699417176096443</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="5"/>
+        <v>-2.7725790774993739</v>
+      </c>
+      <c r="M24">
         <f t="shared" si="0"/>
-        <v>0.29699417176096443</v>
-      </c>
-      <c r="L24">
+        <v>1.1422080623323001</v>
+      </c>
+      <c r="N24">
         <f t="shared" si="1"/>
-        <v>-2.7725790774993739</v>
-      </c>
-      <c r="M24">
-        <f>100*(G24-G23)/G23</f>
-        <v>1.1422080623323001</v>
-      </c>
-      <c r="N24">
-        <f>100*(H24-H23)/H23</f>
         <v>-2.8085891716484817</v>
       </c>
       <c r="O24">
-        <f>100*(I24-I23)/I23</f>
+        <f t="shared" si="2"/>
         <v>-5.809932439308243</v>
       </c>
     </row>
@@ -9059,23 +10952,23 @@
         <v>20.6488584769459</v>
       </c>
       <c r="K25">
+        <f t="shared" si="3"/>
+        <v>0.32636929887787858</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="5"/>
+        <v>-2.8724543265223987</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="0"/>
-        <v>0.32636929887787858</v>
-      </c>
-      <c r="L25">
+        <v>4.5979742469669634E-2</v>
+      </c>
+      <c r="N25">
         <f t="shared" si="1"/>
-        <v>-2.8724543265223987</v>
-      </c>
-      <c r="M25">
-        <f>100*(G25-G24)/G24</f>
-        <v>4.5979742469669634E-2</v>
-      </c>
-      <c r="N25">
-        <f>100*(H25-H24)/H24</f>
         <v>-0.13425414367073801</v>
       </c>
       <c r="O25">
-        <f>100*(I25-I24)/I24</f>
+        <f t="shared" si="2"/>
         <v>-6.6990433661010034</v>
       </c>
     </row>
@@ -9108,23 +11001,23 @@
         <v>19.7935037208591</v>
       </c>
       <c r="K26">
+        <f t="shared" si="3"/>
+        <v>0.18320202044755712</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="5"/>
+        <v>-1.580429479894399</v>
+      </c>
+      <c r="M26">
         <f t="shared" si="0"/>
-        <v>0.18320202044755712</v>
-      </c>
-      <c r="L26">
+        <v>-0.2142183074801696</v>
+      </c>
+      <c r="N26">
         <f t="shared" si="1"/>
-        <v>-1.580429479894399</v>
-      </c>
-      <c r="M26">
-        <f>100*(G26-G25)/G25</f>
-        <v>-0.2142183074801696</v>
-      </c>
-      <c r="N26">
-        <f>100*(H26-H25)/H25</f>
         <v>0.45703185813179648</v>
       </c>
       <c r="O26">
-        <f>100*(I26-I25)/I25</f>
+        <f t="shared" si="2"/>
         <v>-4.1423827716277364</v>
       </c>
     </row>
@@ -9157,23 +11050,23 @@
         <v>19.939651752581302</v>
       </c>
       <c r="K27">
+        <f t="shared" si="3"/>
+        <v>-2.3451754354151123E-2</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="5"/>
+        <v>0.19722227057618522</v>
+      </c>
+      <c r="M27">
         <f t="shared" si="0"/>
-        <v>-2.3451754354151123E-2</v>
-      </c>
-      <c r="L27">
+        <v>-0.71062961943548586</v>
+      </c>
+      <c r="N27">
         <f t="shared" si="1"/>
-        <v>0.19722227057618522</v>
-      </c>
-      <c r="M27">
-        <f>100*(G27-G26)/G26</f>
-        <v>-0.71062961943548586</v>
-      </c>
-      <c r="N27">
-        <f>100*(H27-H26)/H26</f>
         <v>1.5511465090905037</v>
       </c>
       <c r="O27">
-        <f>100*(I27-I26)/I26</f>
+        <f t="shared" si="2"/>
         <v>0.73836362567879232</v>
       </c>
     </row>
@@ -9206,23 +11099,23 @@
         <v>20.701368016667999</v>
       </c>
       <c r="K28">
+        <f t="shared" si="3"/>
+        <v>-0.14759491374702785</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="5"/>
+        <v>1.3232416152548574</v>
+      </c>
+      <c r="M28">
         <f t="shared" si="0"/>
-        <v>-0.14759491374702785</v>
-      </c>
-      <c r="L28">
+        <v>0.3057955575225319</v>
+      </c>
+      <c r="N28">
         <f t="shared" si="1"/>
-        <v>1.3232416152548574</v>
-      </c>
-      <c r="M28">
-        <f>100*(G28-G27)/G27</f>
-        <v>0.3057955575225319</v>
-      </c>
-      <c r="N28">
-        <f>100*(H28-H27)/H27</f>
         <v>-0.67759690133546513</v>
       </c>
       <c r="O28">
-        <f>100*(I28-I27)/I27</f>
+        <f t="shared" si="2"/>
         <v>3.8201081620599955</v>
       </c>
     </row>
@@ -9255,23 +11148,23 @@
         <v>21.651617158258698</v>
       </c>
       <c r="K29">
+        <f t="shared" si="3"/>
+        <v>-0.17369972369733136</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="5"/>
+        <v>1.5971168530545241</v>
+      </c>
+      <c r="M29">
         <f t="shared" si="0"/>
-        <v>-0.17369972369733136</v>
-      </c>
-      <c r="L29">
+        <v>0.39852785037405997</v>
+      </c>
+      <c r="N29">
         <f t="shared" si="1"/>
-        <v>1.5971168530545241</v>
-      </c>
-      <c r="M29">
-        <f>100*(G29-G28)/G28</f>
-        <v>0.39852785037405997</v>
-      </c>
-      <c r="N29">
-        <f>100*(H29-H28)/H28</f>
         <v>-0.92491335769523153</v>
       </c>
       <c r="O29">
-        <f>100*(I29-I28)/I28</f>
+        <f t="shared" si="2"/>
         <v>4.5902722024244627</v>
       </c>
     </row>
@@ -9304,23 +11197,23 @@
         <v>21.997302657468001</v>
       </c>
       <c r="K30">
+        <f t="shared" si="3"/>
+        <v>-5.8383485917755787E-2</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="5"/>
+        <v>0.527194787848413</v>
+      </c>
+      <c r="M30">
         <f t="shared" si="0"/>
-        <v>-5.8383485917755787E-2</v>
-      </c>
-      <c r="L30">
+        <v>-0.13152828927410884</v>
+      </c>
+      <c r="N30">
         <f t="shared" si="1"/>
-        <v>0.527194787848413</v>
-      </c>
-      <c r="M30">
-        <f>100*(G30-G29)/G29</f>
-        <v>-0.13152828927410884</v>
-      </c>
-      <c r="N30">
-        <f>100*(H30-H29)/H29</f>
         <v>0.30902892867800819</v>
       </c>
       <c r="O30">
-        <f>100*(I30-I29)/I29</f>
+        <f t="shared" si="2"/>
         <v>1.5965805079711841</v>
       </c>
     </row>
@@ -9353,23 +11246,23 @@
         <v>21.879264880344099</v>
       </c>
       <c r="K31">
+        <f t="shared" si="3"/>
+        <v>1.9003413929677311E-2</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="5"/>
+        <v>-0.17688870019747788</v>
+      </c>
+      <c r="M31">
         <f t="shared" si="0"/>
-        <v>1.9003413929677311E-2</v>
-      </c>
-      <c r="L31">
+        <v>-3.448918340618252E-3</v>
+      </c>
+      <c r="N31">
         <f t="shared" si="1"/>
-        <v>-0.17688870019747788</v>
-      </c>
-      <c r="M31">
-        <f>100*(G31-G30)/G30</f>
-        <v>-3.448918340618252E-3</v>
-      </c>
-      <c r="N31">
-        <f>100*(H31-H30)/H30</f>
         <v>1.19251774528074E-3</v>
       </c>
       <c r="O31">
-        <f>100*(I31-I30)/I30</f>
+        <f t="shared" si="2"/>
         <v>-0.5366011413396129</v>
       </c>
     </row>
@@ -9402,23 +11295,23 @@
         <v>20.908292010402</v>
       </c>
       <c r="K32">
+        <f t="shared" si="3"/>
+        <v>0.1664013291263392</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="5"/>
+        <v>-1.4228015737565924</v>
+      </c>
+      <c r="M32">
         <f t="shared" si="0"/>
-        <v>0.1664013291263392</v>
-      </c>
-      <c r="L32">
+        <v>-1.1300990222427005</v>
+      </c>
+      <c r="N32">
         <f t="shared" si="1"/>
-        <v>-1.4228015737565924</v>
-      </c>
-      <c r="M32">
-        <f>100*(G32-G31)/G31</f>
-        <v>-1.1300990222427005</v>
-      </c>
-      <c r="N32">
-        <f>100*(H32-H31)/H31</f>
         <v>2.4792310554292789</v>
       </c>
       <c r="O32">
-        <f>100*(I32-I31)/I31</f>
+        <f t="shared" si="2"/>
         <v>-4.4378678865687187</v>
       </c>
     </row>
@@ -9451,23 +11344,23 @@
         <v>19.060627337391299</v>
       </c>
       <c r="K33">
+        <f t="shared" si="3"/>
+        <v>0.29263574698580658</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="5"/>
+        <v>-2.3044174703315128</v>
+      </c>
+      <c r="M33">
         <f t="shared" si="0"/>
-        <v>0.29263574698580658</v>
-      </c>
-      <c r="L33">
+        <v>8.7686939978948539E-2</v>
+      </c>
+      <c r="N33">
         <f t="shared" si="1"/>
-        <v>-2.3044174703315128</v>
-      </c>
-      <c r="M33">
-        <f>100*(G33-G32)/G32</f>
-        <v>8.7686939978948539E-2</v>
-      </c>
-      <c r="N33">
-        <f>100*(H33-H32)/H32</f>
         <v>-0.18483857037652154</v>
       </c>
       <c r="O33">
-        <f>100*(I33-I32)/I32</f>
+        <f t="shared" si="2"/>
         <v>-8.8369947774379511</v>
       </c>
     </row>
@@ -9500,23 +11393,23 @@
         <v>17.331685022089999</v>
       </c>
       <c r="K34">
+        <f t="shared" si="3"/>
+        <v>0.27332089853168845</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="5"/>
+        <v>-2.0103002463833697</v>
+      </c>
+      <c r="M34">
         <f t="shared" si="0"/>
-        <v>0.27332089853168845</v>
-      </c>
-      <c r="L34">
+        <v>-0.57621306498300595</v>
+      </c>
+      <c r="N34">
         <f t="shared" si="1"/>
-        <v>-2.0103002463833697</v>
-      </c>
-      <c r="M34">
-        <f>100*(G34-G33)/G33</f>
-        <v>-0.57621306498300595</v>
-      </c>
-      <c r="N34">
-        <f>100*(H34-H33)/H33</f>
         <v>1.005015756810981</v>
       </c>
       <c r="O34">
-        <f>100*(I34-I33)/I33</f>
+        <f t="shared" si="2"/>
         <v>-9.070752419096026</v>
       </c>
     </row>
@@ -9549,23 +11442,23 @@
         <v>15.420180636057699</v>
       </c>
       <c r="K35">
+        <f t="shared" si="3"/>
+        <v>0.29533339774550615</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="5"/>
+        <v>-1.990671508359156</v>
+      </c>
+      <c r="M35">
         <f t="shared" si="0"/>
-        <v>0.29533339774550615</v>
-      </c>
-      <c r="L35">
+        <v>-0.71590587273481554</v>
+      </c>
+      <c r="N35">
         <f t="shared" si="1"/>
-        <v>-1.990671508359156</v>
-      </c>
-      <c r="M35">
-        <f>100*(G35-G34)/G34</f>
-        <v>-0.71590587273481554</v>
-      </c>
-      <c r="N35">
-        <f>100*(H35-H34)/H34</f>
         <v>1.1025898965455927</v>
       </c>
       <c r="O35">
-        <f>100*(I35-I34)/I34</f>
+        <f t="shared" si="2"/>
         <v>-11.028958716916463</v>
       </c>
     </row>
@@ -9598,23 +11491,23 @@
         <v>14.789362026107399</v>
       </c>
       <c r="K36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.11017771411418534</v>
       </c>
       <c r="L36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-0.73841289272526356</v>
       </c>
       <c r="M36">
-        <f>100*(G36-G35)/G35</f>
+        <f t="shared" ref="M36:M65" si="6">100*(G36-G35)/G35</f>
         <v>-1.8611823917505124</v>
       </c>
       <c r="N36">
-        <f>100*(H36-H35)/H35</f>
+        <f t="shared" ref="N36:N65" si="7">100*(H36-H35)/H35</f>
         <v>2.7507724743658248</v>
       </c>
       <c r="O36">
-        <f>100*(I36-I35)/I35</f>
+        <f t="shared" ref="O36:O65" si="8">100*(I36-I35)/I35</f>
         <v>-4.0908639453627949</v>
       </c>
     </row>
@@ -9647,23 +11540,23 @@
         <v>15.428080693514501</v>
       </c>
       <c r="K37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-6.6987924277888994E-2</v>
       </c>
       <c r="L37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.46874399199541955</v>
       </c>
       <c r="M37">
-        <f>100*(G37-G36)/G36</f>
+        <f t="shared" si="6"/>
         <v>-2.1135747588949969</v>
       </c>
       <c r="N37">
-        <f>100*(H37-H36)/H36</f>
+        <f t="shared" si="7"/>
         <v>3.1644633363057224</v>
       </c>
       <c r="O37">
-        <f>100*(I37-I36)/I36</f>
+        <f t="shared" si="8"/>
         <v>4.318770926559119</v>
       </c>
     </row>
@@ -9696,23 +11589,23 @@
         <v>16.3643643639559</v>
       </c>
       <c r="K38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.1138261790644601</v>
       </c>
       <c r="L38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.85357871337010316</v>
       </c>
       <c r="M38">
-        <f>100*(G38-G37)/G37</f>
+        <f t="shared" si="6"/>
         <v>-1.0436738064897955</v>
       </c>
       <c r="N38">
-        <f>100*(H38-H37)/H37</f>
+        <f t="shared" si="7"/>
         <v>1.5989084772984004</v>
       </c>
       <c r="O38">
-        <f>100*(I38-I37)/I37</f>
+        <f t="shared" si="8"/>
         <v>6.0686982978704869</v>
       </c>
     </row>
@@ -9745,23 +11638,23 @@
         <v>17.734175327026399</v>
       </c>
       <c r="K39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.16892929721076594</v>
       </c>
       <c r="L39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.3730258084196194</v>
       </c>
       <c r="M39">
-        <f>100*(G39-G38)/G38</f>
+        <f t="shared" si="6"/>
         <v>-0.48384825440978918</v>
       </c>
       <c r="N39">
-        <f>100*(H39-H38)/H38</f>
+        <f t="shared" si="7"/>
         <v>0.78978630191469279</v>
       </c>
       <c r="O39">
-        <f>100*(I39-I38)/I38</f>
+        <f t="shared" si="8"/>
         <v>8.3706945934767898</v>
       </c>
     </row>
@@ -9794,23 +11687,23 @@
         <v>17.779593547114501</v>
       </c>
       <c r="K40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.212340979561956E-3</v>
       </c>
       <c r="L40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-2.2936352583410979E-2</v>
       </c>
       <c r="M40">
-        <f>100*(G40-G39)/G39</f>
+        <f t="shared" si="6"/>
         <v>-0.77411494282969651</v>
       </c>
       <c r="N40">
-        <f>100*(H40-H39)/H39</f>
+        <f t="shared" si="7"/>
         <v>1.2524071240255734</v>
       </c>
       <c r="O40">
-        <f>100*(I40-I39)/I39</f>
+        <f t="shared" si="8"/>
         <v>0.25610562233974321</v>
       </c>
     </row>
@@ -9843,23 +11736,23 @@
         <v>17.712001735465499</v>
       </c>
       <c r="K41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.64092593093207E-2</v>
       </c>
       <c r="L41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-0.1378326752984782</v>
       </c>
       <c r="M41">
-        <f>100*(G41-G40)/G40</f>
+        <f t="shared" si="6"/>
         <v>-0.80302002185763766</v>
       </c>
       <c r="N41">
-        <f>100*(H41-H40)/H40</f>
+        <f t="shared" si="7"/>
         <v>1.2743278870305379</v>
       </c>
       <c r="O41">
-        <f>100*(I41-I40)/I40</f>
+        <f t="shared" si="8"/>
         <v>-0.38016511159205923</v>
       </c>
     </row>
@@ -9892,23 +11785,23 @@
         <v>16.517273178676401</v>
       </c>
       <c r="K42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.14360942421850997</v>
       </c>
       <c r="L42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-1.0977106522444295</v>
       </c>
       <c r="M42">
-        <f>100*(G42-G41)/G41</f>
+        <f t="shared" si="6"/>
         <v>-0.2690627569975047</v>
       </c>
       <c r="N42">
-        <f>100*(H42-H41)/H41</f>
+        <f t="shared" si="7"/>
         <v>0.38193282591155597</v>
       </c>
       <c r="O42">
-        <f>100*(I42-I41)/I41</f>
+        <f t="shared" si="8"/>
         <v>-6.7453051023410966</v>
       </c>
     </row>
@@ -9941,23 +11834,23 @@
         <v>15.2795941745668</v>
       </c>
       <c r="K43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.14863605311108749</v>
       </c>
       <c r="L43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-1.0701726606613211</v>
       </c>
       <c r="M43">
-        <f>100*(G43-G42)/G42</f>
+        <f t="shared" si="6"/>
         <v>-0.50981656969331302</v>
       </c>
       <c r="N43">
-        <f>100*(H43-H42)/H42</f>
+        <f t="shared" si="7"/>
         <v>0.68204044387949858</v>
       </c>
       <c r="O43">
-        <f>100*(I43-I42)/I42</f>
+        <f t="shared" si="8"/>
         <v>-7.4932405047791431</v>
       </c>
     </row>
@@ -9990,23 +11883,23 @@
         <v>14.011732422924901</v>
       </c>
       <c r="K44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.15418164808669377</v>
       </c>
       <c r="L44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-1.0388358655228236</v>
       </c>
       <c r="M44">
-        <f>100*(G44-G43)/G43</f>
+        <f t="shared" si="6"/>
         <v>-0.94402843773922407</v>
       </c>
       <c r="N44">
-        <f>100*(H44-H43)/H43</f>
+        <f t="shared" si="7"/>
         <v>1.1651039387993547</v>
       </c>
       <c r="O44">
-        <f>100*(I44-I43)/I43</f>
+        <f t="shared" si="8"/>
         <v>-8.2977449345629939</v>
       </c>
     </row>
@@ -10039,23 +11932,23 @@
         <v>13.460536949322799</v>
       </c>
       <c r="K45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.4924827084977502E-2</v>
       </c>
       <c r="L45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-0.43176785176062993</v>
       </c>
       <c r="M45">
-        <f>100*(G45-G44)/G44</f>
+        <f t="shared" si="6"/>
         <v>-0.37001340051778081</v>
       </c>
       <c r="N45">
-        <f>100*(H45-H44)/H44</f>
+        <f t="shared" si="7"/>
         <v>0.43117785883286347</v>
       </c>
       <c r="O45">
-        <f>100*(I45-I44)/I44</f>
+        <f t="shared" si="8"/>
         <v>-3.933813870869233</v>
       </c>
     </row>
@@ -10088,23 +11981,23 @@
         <v>14.7107208996299</v>
       </c>
       <c r="K46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.12379855366291709</v>
       </c>
       <c r="L46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.89815940328446642</v>
       </c>
       <c r="M46">
-        <f>100*(G46-G45)/G45</f>
+        <f t="shared" si="6"/>
         <v>-0.78235840235309717</v>
       </c>
       <c r="N46">
-        <f>100*(H46-H45)/H45</f>
+        <f t="shared" si="7"/>
         <v>1.0205968249896897</v>
       </c>
       <c r="O46">
-        <f>100*(I46-I45)/I45</f>
+        <f t="shared" si="8"/>
         <v>9.2877717658209562</v>
       </c>
     </row>
@@ -10137,23 +12030,23 @@
         <v>16.078007443732702</v>
       </c>
       <c r="K47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.13043176443870086</v>
       </c>
       <c r="L47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0335048407913783</v>
       </c>
       <c r="M47">
-        <f>100*(G47-G46)/G46</f>
+        <f t="shared" si="6"/>
         <v>-0.88539055920984444</v>
       </c>
       <c r="N47">
-        <f>100*(H47-H46)/H46</f>
+        <f t="shared" si="7"/>
         <v>1.259161983020842</v>
       </c>
       <c r="O47">
-        <f>100*(I47-I46)/I46</f>
+        <f t="shared" si="8"/>
         <v>9.29449041574299</v>
       </c>
     </row>
@@ -10186,23 +12079,23 @@
         <v>16.717742375895099</v>
       </c>
       <c r="K48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-5.2109226873539242E-2</v>
       </c>
       <c r="L48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.42471211847484996</v>
       </c>
       <c r="M48">
-        <f>100*(G48-G47)/G47</f>
+        <f t="shared" si="6"/>
         <v>-1.0244747281454074</v>
       </c>
       <c r="N48">
-        <f>100*(H48-H47)/H47</f>
+        <f t="shared" si="7"/>
         <v>1.4947237033197001</v>
       </c>
       <c r="O48">
-        <f>100*(I48-I47)/I47</f>
+        <f t="shared" si="8"/>
         <v>3.9789441222815829</v>
       </c>
     </row>
@@ -10235,23 +12128,23 @@
         <v>16.963276424331099</v>
       </c>
       <c r="K49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1.2757668295619095E-2</v>
       </c>
       <c r="L49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.10229179941148146</v>
       </c>
       <c r="M49">
-        <f>100*(G49-G48)/G48</f>
+        <f t="shared" si="6"/>
         <v>-0.94777316768244979</v>
       </c>
       <c r="N49">
-        <f>100*(H49-H48)/H48</f>
+        <f t="shared" si="7"/>
         <v>1.3747658305006509</v>
       </c>
       <c r="O49">
-        <f>100*(I49-I48)/I48</f>
+        <f t="shared" si="8"/>
         <v>1.468703386589022</v>
       </c>
     </row>
@@ -10284,23 +12177,23 @@
         <v>15.589345654872799</v>
       </c>
       <c r="K50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.14487860886074216</v>
       </c>
       <c r="L50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-1.1218838374467661</v>
       </c>
       <c r="M50">
-        <f>100*(G50-G49)/G49</f>
+        <f t="shared" si="6"/>
         <v>-0.76931758276515605</v>
       </c>
       <c r="N50">
-        <f>100*(H50-H49)/H49</f>
+        <f t="shared" si="7"/>
         <v>1.0000492355948118</v>
       </c>
       <c r="O50">
-        <f>100*(I50-I49)/I49</f>
+        <f t="shared" si="8"/>
         <v>-8.0994422014347176</v>
       </c>
     </row>
@@ -10333,23 +12226,23 @@
         <v>13.9424507511255</v>
       </c>
       <c r="K51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.17183996673975727</v>
       </c>
       <c r="L51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-1.212362167023338</v>
       </c>
       <c r="M51">
-        <f>100*(G51-G50)/G50</f>
+        <f t="shared" si="6"/>
         <v>-0.83010660656508006</v>
       </c>
       <c r="N51">
-        <f>100*(H51-H50)/H50</f>
+        <f t="shared" si="7"/>
         <v>0.95779655121133145</v>
       </c>
       <c r="O51">
-        <f>100*(I51-I50)/I50</f>
+        <f t="shared" si="8"/>
         <v>-10.564233677329009</v>
       </c>
     </row>
@@ -10382,23 +12275,23 @@
         <v>12.704025247896601</v>
       </c>
       <c r="K52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.13566199535995524</v>
       </c>
       <c r="L52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-0.89244814321997956</v>
       </c>
       <c r="M52">
-        <f>100*(G52-G51)/G51</f>
+        <f t="shared" si="6"/>
         <v>-1.1932793260069425</v>
       </c>
       <c r="N52">
-        <f>100*(H52-H51)/H51</f>
+        <f t="shared" si="7"/>
         <v>1.2512147455827431</v>
       </c>
       <c r="O52">
-        <f>100*(I52-I51)/I51</f>
+        <f t="shared" si="8"/>
         <v>-8.8824090207306501</v>
       </c>
     </row>
@@ -10431,23 +12324,23 @@
         <v>11.6650592911892</v>
       </c>
       <c r="K53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.11075160862251326</v>
       </c>
       <c r="L53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-0.68368372730440985</v>
       </c>
       <c r="M53">
-        <f>100*(G53-G52)/G52</f>
+        <f t="shared" si="6"/>
         <v>-0.81043405363623411</v>
       </c>
       <c r="N53">
-        <f>100*(H53-H52)/H52</f>
+        <f t="shared" si="7"/>
         <v>0.77857705724238446</v>
       </c>
       <c r="O53">
-        <f>100*(I53-I52)/I52</f>
+        <f t="shared" si="8"/>
         <v>-8.1782422219242807</v>
       </c>
     </row>
@@ -10480,23 +12373,23 @@
         <v>12.722835410484301</v>
       </c>
       <c r="K54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-8.7199682931383915E-2</v>
       </c>
       <c r="L54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.5896780684740639</v>
       </c>
       <c r="M54">
-        <f>100*(G54-G53)/G53</f>
+        <f t="shared" si="6"/>
         <v>-0.82287750358811573</v>
       </c>
       <c r="N54">
-        <f>100*(H54-H53)/H53</f>
+        <f t="shared" si="7"/>
         <v>0.86941172180916448</v>
       </c>
       <c r="O54">
-        <f>100*(I54-I53)/I53</f>
+        <f t="shared" si="8"/>
         <v>9.0679017816399359</v>
       </c>
     </row>
@@ -10529,23 +12422,23 @@
         <v>13.800845331764</v>
       </c>
       <c r="K55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-9.0119561575372237E-2</v>
       </c>
       <c r="L55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.66386292006406256</v>
       </c>
       <c r="M55">
-        <f>100*(G55-G54)/G54</f>
+        <f t="shared" si="6"/>
         <v>-0.56695155844741196</v>
       </c>
       <c r="N55">
-        <f>100*(H55-H54)/H54</f>
+        <f t="shared" si="7"/>
         <v>0.64867392318337092</v>
       </c>
       <c r="O55">
-        <f>100*(I55-I54)/I54</f>
+        <f t="shared" si="8"/>
         <v>8.4730320443457234</v>
       </c>
     </row>
@@ -10578,23 +12471,23 @@
         <v>13.8616284462869</v>
       </c>
       <c r="K56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.295832132332571E-3</v>
       </c>
       <c r="L56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-2.8642453280395368E-2</v>
       </c>
       <c r="M56">
-        <f>100*(G56-G55)/G55</f>
+        <f t="shared" si="6"/>
         <v>-0.61723517759584745</v>
       </c>
       <c r="N56">
-        <f>100*(H56-H55)/H55</f>
+        <f t="shared" si="7"/>
         <v>0.70747934077755881</v>
       </c>
       <c r="O56">
-        <f>100*(I56-I55)/I55</f>
+        <f t="shared" si="8"/>
         <v>0.44043037264537704</v>
       </c>
     </row>
@@ -10627,23 +12520,23 @@
         <v>13.115508354319999</v>
       </c>
       <c r="K57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.4905967758792505E-2</v>
       </c>
       <c r="L57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-0.53726196229056655</v>
       </c>
       <c r="M57">
-        <f>100*(G57-G56)/G56</f>
+        <f t="shared" si="6"/>
         <v>-0.61001777950263292</v>
       </c>
       <c r="N57">
-        <f>100*(H57-H56)/H56</f>
+        <f t="shared" si="7"/>
         <v>0.65975803985329629</v>
       </c>
       <c r="O57">
-        <f>100*(I57-I56)/I56</f>
+        <f t="shared" si="8"/>
         <v>-5.3826294281229528</v>
       </c>
     </row>
@@ -10676,23 +12569,23 @@
         <v>11.1010639023004</v>
       </c>
       <c r="K58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.19720597458571099</v>
       </c>
       <c r="L58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-1.2119491796398256</v>
       </c>
       <c r="M58">
-        <f>100*(G58-G57)/G57</f>
+        <f t="shared" si="6"/>
         <v>-1.3140102267079949</v>
       </c>
       <c r="N58">
-        <f>100*(H58-H57)/H57</f>
+        <f t="shared" si="7"/>
         <v>1.2138997522995827</v>
       </c>
       <c r="O58">
-        <f>100*(I58-I57)/I57</f>
+        <f t="shared" si="8"/>
         <v>-15.359255604881531</v>
       </c>
     </row>
@@ -10725,23 +12618,23 @@
         <v>8.48703687785423</v>
       </c>
       <c r="K59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.25263394891122459</v>
       </c>
       <c r="L59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-1.2187519891418361</v>
       </c>
       <c r="M59">
-        <f>100*(G59-G58)/G58</f>
+        <f t="shared" si="6"/>
         <v>-1.5540904030644236</v>
       </c>
       <c r="N59">
-        <f>100*(H59-H58)/H58</f>
+        <f t="shared" si="7"/>
         <v>1.0931522916098735</v>
       </c>
       <c r="O59">
-        <f>100*(I59-I58)/I58</f>
+        <f t="shared" si="8"/>
         <v>-23.547536051066981</v>
       </c>
     </row>
@@ -10774,23 +12667,23 @@
         <v>5.84977118518818</v>
       </c>
       <c r="K60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.25776808724490341</v>
       </c>
       <c r="L60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-0.88333123377275213</v>
       </c>
       <c r="M60">
-        <f>100*(G60-G59)/G59</f>
+        <f t="shared" si="6"/>
         <v>-1.9019672289284597</v>
       </c>
       <c r="N60">
-        <f>100*(H60-H59)/H59</f>
+        <f t="shared" si="7"/>
         <v>0.92146771445517162</v>
       </c>
       <c r="O60">
-        <f>100*(I60-I59)/I59</f>
+        <f t="shared" si="8"/>
         <v>-31.074045401495034</v>
       </c>
     </row>
@@ -10823,23 +12716,23 @@
         <v>4.1415875527731796</v>
       </c>
       <c r="K61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.16646462559420952</v>
       </c>
       <c r="L61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-0.41585365281420278</v>
       </c>
       <c r="M61">
-        <f>100*(G61-G60)/G60</f>
+        <f t="shared" si="6"/>
         <v>-1.3808797843567142</v>
       </c>
       <c r="N61">
-        <f>100*(H61-H60)/H60</f>
+        <f t="shared" si="7"/>
         <v>0.46903607029482036</v>
       </c>
       <c r="O61">
-        <f>100*(I61-I60)/I60</f>
+        <f t="shared" si="8"/>
         <v>-29.200862364329389</v>
       </c>
     </row>
@@ -10872,23 +12765,23 @@
         <v>4.0162528044000201</v>
       </c>
       <c r="K62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.714540001374509E-2</v>
       </c>
       <c r="L62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-9.47680933972887E-2</v>
       </c>
       <c r="M62">
-        <f>100*(G62-G61)/G61</f>
+        <f t="shared" si="6"/>
         <v>-1.6804444944552177</v>
       </c>
       <c r="N62">
-        <f>100*(H62-H61)/H61</f>
+        <f t="shared" si="7"/>
         <v>0.55767891130644687</v>
       </c>
       <c r="O62">
-        <f>100*(I62-I61)/I61</f>
+        <f t="shared" si="8"/>
         <v>-3.0262489148451341</v>
       </c>
     </row>
@@ -10921,23 +12814,23 @@
         <v>4.0802153782399104</v>
       </c>
       <c r="K63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.1798456024455411E-2</v>
       </c>
       <c r="L63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-5.8928802633209355E-2</v>
       </c>
       <c r="M63">
-        <f>100*(G63-G62)/G62</f>
+        <f t="shared" si="6"/>
         <v>-1.6877573396882108</v>
       </c>
       <c r="N63">
-        <f>100*(H63-H62)/H62</f>
+        <f t="shared" si="7"/>
         <v>0.57221494716229315</v>
       </c>
       <c r="O63">
-        <f>100*(I63-I62)/I62</f>
+        <f t="shared" si="8"/>
         <v>1.5925933190713473</v>
       </c>
     </row>
@@ -10970,23 +12863,23 @@
         <v>3.4967575502033501</v>
       </c>
       <c r="K64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.9997488309877407E-2</v>
       </c>
       <c r="L64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-0.18008164766852999</v>
       </c>
       <c r="M64">
-        <f>100*(G64-G63)/G63</f>
+        <f t="shared" si="6"/>
         <v>-2.1095952231717283</v>
       </c>
       <c r="N64">
-        <f>100*(H64-H63)/H63</f>
+        <f t="shared" si="7"/>
         <v>0.61435349424402341</v>
       </c>
       <c r="O64">
-        <f>100*(I64-I63)/I63</f>
+        <f t="shared" si="8"/>
         <v>-14.299682098846644</v>
       </c>
     </row>
@@ -11019,23 +12912,23 @@
         <v>1.6726210180180201</v>
       </c>
       <c r="K65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.16994997441879886</v>
       </c>
       <c r="L65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>-0.18690903860811128</v>
       </c>
       <c r="M65">
-        <f>100*(G65-G64)/G64</f>
+        <f t="shared" si="6"/>
         <v>-1.7239521314513897</v>
       </c>
       <c r="N65">
-        <f>100*(H65-H64)/H64</f>
+        <f t="shared" si="7"/>
         <v>0.23739667917020613</v>
       </c>
       <c r="O65">
-        <f>100*(I65-I64)/I64</f>
+        <f t="shared" si="8"/>
         <v>-52.166514435044242</v>
       </c>
     </row>
@@ -11172,15 +13065,15 @@
         <v>-77.329428200633913</v>
       </c>
       <c r="M4">
-        <f>100*(G4-G3)/G3</f>
+        <f t="shared" ref="M4:M35" si="0">100*(G4-G3)/G3</f>
         <v>-0.73826976084458451</v>
       </c>
       <c r="N4">
-        <f>100*(H4-H3)/H3</f>
+        <f t="shared" ref="N4:N35" si="1">100*(H4-H3)/H3</f>
         <v>81.701712068765246</v>
       </c>
       <c r="O4">
-        <f>100*(I4-I3)/I3</f>
+        <f t="shared" ref="O4:O35" si="2">100*(I4-I3)/I3</f>
         <v>-1.0445655620244387</v>
       </c>
     </row>
@@ -11213,23 +13106,23 @@
         <v>12.1634112679384</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:L65" si="0">100*(C5-C4)/C4</f>
+        <f t="shared" ref="K5:L65" si="3">100*(C5-C4)/C4</f>
         <v>0.42667113616257812</v>
       </c>
       <c r="L5">
-        <f>100*(D5-D4)/D4</f>
+        <f t="shared" ref="L5:L19" si="4">100*(D5-D4)/D4</f>
         <v>-101.19451677456563</v>
       </c>
       <c r="M5">
-        <f>100*(G5-G4)/G4</f>
+        <f t="shared" si="0"/>
         <v>3.0026921283433277</v>
       </c>
       <c r="N5">
-        <f>100*(H5-H4)/H4</f>
+        <f t="shared" si="1"/>
         <v>-208.21047034038284</v>
       </c>
       <c r="O5">
-        <f>100*(I5-I4)/I4</f>
+        <f t="shared" si="2"/>
         <v>-0.65371173787388703</v>
       </c>
     </row>
@@ -11262,23 +13155,23 @@
         <v>12.168917530837801</v>
       </c>
       <c r="K6">
+        <f t="shared" si="3"/>
+        <v>0.57104576314712152</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>11750.240709531541</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="0"/>
-        <v>0.57104576314712152</v>
-      </c>
-      <c r="L6">
-        <f>100*(D6-D5)/D5</f>
-        <v>11750.240709531541</v>
-      </c>
-      <c r="M6">
-        <f>100*(G6-G5)/G5</f>
         <v>2.3889220800781024</v>
       </c>
       <c r="N6">
-        <f>100*(H6-H5)/H5</f>
+        <f t="shared" si="1"/>
         <v>163.83817872134262</v>
       </c>
       <c r="O6">
-        <f>100*(I6-I5)/I5</f>
+        <f t="shared" si="2"/>
         <v>4.5269067847064172E-2</v>
       </c>
     </row>
@@ -11311,23 +13204,23 @@
         <v>12.2374622031786</v>
       </c>
       <c r="K7">
+        <f t="shared" si="3"/>
+        <v>0.30385861732231906</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>53.71702535905029</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="0"/>
-        <v>0.30385861732231906</v>
-      </c>
-      <c r="L7">
-        <f>100*(D7-D6)/D6</f>
-        <v>53.71702535905029</v>
-      </c>
-      <c r="M7">
-        <f>100*(G7-G6)/G6</f>
         <v>2.4734194455070564</v>
       </c>
       <c r="N7">
-        <f>100*(H7-H6)/H6</f>
+        <f t="shared" si="1"/>
         <v>66.5238666894207</v>
       </c>
       <c r="O7">
-        <f>100*(I7-I6)/I6</f>
+        <f t="shared" si="2"/>
         <v>0.56327666094455042</v>
       </c>
     </row>
@@ -11360,23 +13253,23 @@
         <v>12.3389596794703</v>
       </c>
       <c r="K8">
+        <f t="shared" si="3"/>
+        <v>0.25162100577359242</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>29.30528577970691</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="0"/>
-        <v>0.25162100577359242</v>
-      </c>
-      <c r="L8">
-        <f>100*(D8-D7)/D7</f>
-        <v>29.30528577970691</v>
-      </c>
-      <c r="M8">
-        <f>100*(G8-G7)/G7</f>
         <v>1.5777743554019119</v>
       </c>
       <c r="N8">
-        <f>100*(H8-H7)/H7</f>
+        <f t="shared" si="1"/>
         <v>26.35232848783216</v>
       </c>
       <c r="O8">
-        <f>100*(I8-I7)/I7</f>
+        <f t="shared" si="2"/>
         <v>0.82939971218326858</v>
       </c>
     </row>
@@ -11409,23 +13302,23 @@
         <v>12.4406321704211</v>
       </c>
       <c r="K9">
+        <f t="shared" si="3"/>
+        <v>0.30018037943859061</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>27.326479416735101</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="0"/>
-        <v>0.30018037943859061</v>
-      </c>
-      <c r="L9">
-        <f>100*(D9-D8)/D8</f>
-        <v>27.326479416735101</v>
-      </c>
-      <c r="M9">
-        <f>100*(G9-G8)/G8</f>
         <v>0.39264077059183783</v>
       </c>
       <c r="N9">
-        <f>100*(H9-H8)/H8</f>
+        <f t="shared" si="1"/>
         <v>5.1874836559040132</v>
       </c>
       <c r="O9">
-        <f>100*(I9-I8)/I8</f>
+        <f t="shared" si="2"/>
         <v>0.82399564948708359</v>
       </c>
     </row>
@@ -11458,23 +13351,23 @@
         <v>12.729766604052701</v>
       </c>
       <c r="K10">
+        <f t="shared" si="3"/>
+        <v>0.17968279773969911</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>13.055026531172315</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="0"/>
-        <v>0.17968279773969911</v>
-      </c>
-      <c r="L10">
-        <f>100*(D10-D9)/D9</f>
-        <v>13.055026531172315</v>
-      </c>
-      <c r="M10">
-        <f>100*(G10-G9)/G9</f>
         <v>2.0696609044559904</v>
       </c>
       <c r="N10">
-        <f>100*(H10-H9)/H9</f>
+        <f t="shared" si="1"/>
         <v>27.281318716745499</v>
       </c>
       <c r="O10">
-        <f>100*(I10-I9)/I9</f>
+        <f t="shared" si="2"/>
         <v>2.3241136758230652</v>
       </c>
     </row>
@@ -11507,23 +13400,23 @@
         <v>13.0895114097654</v>
       </c>
       <c r="K11">
+        <f t="shared" si="3"/>
+        <v>0.25872826447004094</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>17.045100918980687</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="0"/>
-        <v>0.25872826447004094</v>
-      </c>
-      <c r="L11">
-        <f>100*(D11-D10)/D10</f>
-        <v>17.045100918980687</v>
-      </c>
-      <c r="M11">
-        <f>100*(G11-G10)/G10</f>
         <v>1.3531545598710402</v>
       </c>
       <c r="N11">
-        <f>100*(H11-H10)/H10</f>
+        <f t="shared" si="1"/>
         <v>14.557296241568585</v>
       </c>
       <c r="O11">
-        <f>100*(I11-I10)/I10</f>
+        <f t="shared" si="2"/>
         <v>2.8260125806090541</v>
       </c>
     </row>
@@ -11556,23 +13449,23 @@
         <v>13.3900600733012</v>
       </c>
       <c r="K12">
+        <f t="shared" si="3"/>
+        <v>9.3606035914846619E-2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>5.2540621286803155</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="0"/>
-        <v>9.3606035914846619E-2</v>
-      </c>
-      <c r="L12">
-        <f>100*(D12-D11)/D11</f>
-        <v>5.2540621286803155</v>
-      </c>
-      <c r="M12">
-        <f>100*(G12-G11)/G11</f>
         <v>1.2795276154486226</v>
       </c>
       <c r="N12">
-        <f>100*(H12-H11)/H11</f>
+        <f t="shared" si="1"/>
         <v>12.301953755278301</v>
       </c>
       <c r="O12">
-        <f>100*(I12-I11)/I11</f>
+        <f t="shared" si="2"/>
         <v>2.2961029951933578</v>
       </c>
     </row>
@@ -11605,23 +13498,23 @@
         <v>13.7162732585663</v>
       </c>
       <c r="K13">
+        <f t="shared" si="3"/>
+        <v>0.1646545427953969</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>8.958628582351098</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="0"/>
-        <v>0.1646545427953969</v>
-      </c>
-      <c r="L13">
-        <f>100*(D13-D12)/D12</f>
-        <v>8.958628582351098</v>
-      </c>
-      <c r="M13">
-        <f>100*(G13-G12)/G12</f>
         <v>0.75869718687713161</v>
       </c>
       <c r="N13">
-        <f>100*(H13-H12)/H12</f>
+        <f t="shared" si="1"/>
         <v>6.611702589624616</v>
       </c>
       <c r="O13">
-        <f>100*(I13-I12)/I12</f>
+        <f t="shared" si="2"/>
         <v>2.436233918886932</v>
       </c>
     </row>
@@ -11654,23 +13547,23 @@
         <v>14.2240425798031</v>
       </c>
       <c r="K14">
+        <f t="shared" si="3"/>
+        <v>0.16568336529231661</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>8.4511132828518605</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="0"/>
-        <v>0.16568336529231661</v>
-      </c>
-      <c r="L14">
-        <f>100*(D14-D13)/D13</f>
-        <v>8.4511132828518605</v>
-      </c>
-      <c r="M14">
-        <f>100*(G14-G13)/G13</f>
         <v>1.1245272159964115</v>
       </c>
       <c r="N14">
-        <f>100*(H14-H13)/H13</f>
+        <f t="shared" si="1"/>
         <v>9.5123079910509745</v>
       </c>
       <c r="O14">
-        <f>100*(I14-I13)/I13</f>
+        <f t="shared" si="2"/>
         <v>3.7019481288015346</v>
       </c>
     </row>
@@ -11703,23 +13596,23 @@
         <v>14.6122262290547</v>
       </c>
       <c r="K15">
+        <f t="shared" si="3"/>
+        <v>0.163334497858211</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>7.7355805732716911</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="0"/>
-        <v>0.163334497858211</v>
-      </c>
-      <c r="L15">
-        <f>100*(D15-D14)/D14</f>
-        <v>7.7355805732716911</v>
-      </c>
-      <c r="M15">
-        <f>100*(G15-G14)/G14</f>
         <v>0.51100226974136154</v>
       </c>
       <c r="N15">
-        <f>100*(H15-H14)/H14</f>
+        <f t="shared" si="1"/>
         <v>3.9938256659908071</v>
       </c>
       <c r="O15">
-        <f>100*(I15-I14)/I14</f>
+        <f t="shared" si="2"/>
         <v>2.7290669798949185</v>
       </c>
     </row>
@@ -11752,23 +13645,23 @@
         <v>15.3500964309195</v>
       </c>
       <c r="K16">
+        <f t="shared" si="3"/>
+        <v>0.23052575313875787</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>10.455842549387498</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="0"/>
-        <v>0.23052575313875787</v>
-      </c>
-      <c r="L16">
-        <f>100*(D16-D15)/D15</f>
-        <v>10.455842549387498</v>
-      </c>
-      <c r="M16">
-        <f>100*(G16-G15)/G15</f>
         <v>0.92377695225342771</v>
       </c>
       <c r="N16">
-        <f>100*(H16-H15)/H15</f>
+        <f t="shared" si="1"/>
         <v>7.2565779781749304</v>
       </c>
       <c r="O16">
-        <f>100*(I16-I15)/I15</f>
+        <f t="shared" si="2"/>
         <v>5.0496768274613153</v>
       </c>
     </row>
@@ -11801,23 +13694,23 @@
         <v>15.7386825290363</v>
       </c>
       <c r="K17">
+        <f t="shared" si="3"/>
+        <v>0.13629281609356353</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>5.5688124164007817</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="0"/>
-        <v>0.13629281609356353</v>
-      </c>
-      <c r="L17">
-        <f>100*(D17-D16)/D16</f>
-        <v>5.5688124164007817</v>
-      </c>
-      <c r="M17">
-        <f>100*(G17-G16)/G16</f>
         <v>0.32629833049972023</v>
       </c>
       <c r="N17">
-        <f>100*(H17-H16)/H16</f>
+        <f t="shared" si="1"/>
         <v>2.3813943785269664</v>
       </c>
       <c r="O17">
-        <f>100*(I17-I16)/I16</f>
+        <f t="shared" si="2"/>
         <v>2.5314896220070398</v>
       </c>
     </row>
@@ -11850,23 +13743,23 @@
         <v>16.191112096393599</v>
       </c>
       <c r="K18">
+        <f t="shared" si="3"/>
+        <v>0.18409234327163385</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>7.1599308689809451</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="0"/>
-        <v>0.18409234327163385</v>
-      </c>
-      <c r="L18">
-        <f>100*(D18-D17)/D17</f>
-        <v>7.1599308689809451</v>
-      </c>
-      <c r="M18">
-        <f>100*(G18-G17)/G17</f>
         <v>9.9671445415033075E-2</v>
       </c>
       <c r="N18">
-        <f>100*(H18-H17)/H17</f>
+        <f t="shared" si="1"/>
         <v>0.68879707019369818</v>
       </c>
       <c r="O18">
-        <f>100*(I18-I17)/I17</f>
+        <f t="shared" si="2"/>
         <v>2.8746343064142241</v>
       </c>
     </row>
@@ -11899,23 +13792,23 @@
         <v>16.756209457990401</v>
       </c>
       <c r="K19">
+        <f t="shared" si="3"/>
+        <v>0.16732243215158873</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>6.1184918216385293</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="0"/>
-        <v>0.16732243215158873</v>
-      </c>
-      <c r="L19">
-        <f>100*(D19-D18)/D18</f>
-        <v>6.1184918216385293</v>
-      </c>
-      <c r="M19">
-        <f>100*(G19-G18)/G18</f>
         <v>0.32659357468158523</v>
       </c>
       <c r="N19">
-        <f>100*(H19-H18)/H18</f>
+        <f t="shared" si="1"/>
         <v>2.375591292702024</v>
       </c>
       <c r="O19">
-        <f>100*(I19-I18)/I18</f>
+        <f t="shared" si="2"/>
         <v>3.4901701515776149</v>
       </c>
     </row>
@@ -11948,23 +13841,23 @@
         <v>17.181407909429002</v>
       </c>
       <c r="K20">
+        <f t="shared" si="3"/>
+        <v>7.5591628389772889E-2</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="3"/>
+        <v>2.5731393705644159</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="0"/>
-        <v>7.5591628389772889E-2</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="0"/>
-        <v>2.5731393705644159</v>
-      </c>
-      <c r="M20">
-        <f>100*(G20-G19)/G19</f>
         <v>0.48173647731369151</v>
       </c>
       <c r="N20">
-        <f>100*(H20-H19)/H19</f>
+        <f t="shared" si="1"/>
         <v>3.4614929295438577</v>
       </c>
       <c r="O20">
-        <f>100*(I20-I19)/I19</f>
+        <f t="shared" si="2"/>
         <v>2.5375575096779373</v>
       </c>
     </row>
@@ -11997,23 +13890,23 @@
         <v>17.621928415033601</v>
       </c>
       <c r="K21">
+        <f t="shared" si="3"/>
+        <v>8.4807407917289745E-2</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="3"/>
+        <v>2.8110718623185629</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="0"/>
-        <v>8.4807407917289745E-2</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="0"/>
-        <v>2.8110718623185629</v>
-      </c>
-      <c r="M21">
-        <f>100*(G21-G20)/G20</f>
         <v>0.39752161192837626</v>
       </c>
       <c r="N21">
-        <f>100*(H21-H20)/H20</f>
+        <f t="shared" si="1"/>
         <v>2.7845052191431368</v>
       </c>
       <c r="O21">
-        <f>100*(I21-I20)/I20</f>
+        <f t="shared" si="2"/>
         <v>2.5639371809736597</v>
       </c>
     </row>
@@ -12046,23 +13939,23 @@
         <v>17.938514483587198</v>
       </c>
       <c r="K22">
+        <f t="shared" si="3"/>
+        <v>3.4954250763273999E-2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="3"/>
+        <v>1.091222662394765</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="0"/>
-        <v>3.4954250763273999E-2</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="0"/>
-        <v>1.091222662394765</v>
-      </c>
-      <c r="M22">
-        <f>100*(G22-G21)/G21</f>
         <v>0.41708098487752038</v>
       </c>
       <c r="N22">
-        <f>100*(H22-H21)/H21</f>
+        <f t="shared" si="1"/>
         <v>2.8486605058082919</v>
       </c>
       <c r="O22">
-        <f>100*(I22-I21)/I21</f>
+        <f t="shared" si="2"/>
         <v>1.7965461049286293</v>
       </c>
     </row>
@@ -12095,23 +13988,23 @@
         <v>18.376342397252898</v>
       </c>
       <c r="K23">
+        <f t="shared" si="3"/>
+        <v>7.7149726197025981E-2</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="3"/>
+        <v>2.4214982566499215</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="0"/>
-        <v>7.7149726197025981E-2</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="0"/>
-        <v>2.4214982566499215</v>
-      </c>
-      <c r="M23">
-        <f>100*(G23-G22)/G22</f>
         <v>0.34558113276728764</v>
       </c>
       <c r="N23">
-        <f>100*(H23-H22)/H22</f>
+        <f t="shared" si="1"/>
         <v>2.3142540004000933</v>
       </c>
       <c r="O23">
-        <f>100*(I23-I22)/I22</f>
+        <f t="shared" si="2"/>
         <v>2.4407144419137357</v>
       </c>
     </row>
@@ -12144,23 +14037,23 @@
         <v>18.837790068599801</v>
       </c>
       <c r="K24">
+        <f t="shared" si="3"/>
+        <v>7.1851447872495408E-2</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="3"/>
+        <v>2.194675800822206</v>
+      </c>
+      <c r="M24">
         <f t="shared" si="0"/>
-        <v>7.1851447872495408E-2</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>2.194675800822206</v>
-      </c>
-      <c r="M24">
-        <f>100*(G24-G23)/G23</f>
         <v>0.37671179188956744</v>
       </c>
       <c r="N24">
-        <f>100*(H24-H23)/H23</f>
+        <f t="shared" si="1"/>
         <v>2.498808979167499</v>
       </c>
       <c r="O24">
-        <f>100*(I24-I23)/I23</f>
+        <f t="shared" si="2"/>
         <v>2.5110963943286424</v>
       </c>
     </row>
@@ -12193,23 +14086,23 @@
         <v>19.550954900023399</v>
       </c>
       <c r="K25">
+        <f t="shared" si="3"/>
+        <v>0.142065746327623</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="3"/>
+        <v>4.3153730376266033</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="0"/>
-        <v>0.142065746327623</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="0"/>
-        <v>4.3153730376266033</v>
-      </c>
-      <c r="M25">
-        <f>100*(G25-G24)/G24</f>
         <v>0.29528380553270595</v>
       </c>
       <c r="N25">
-        <f>100*(H25-H24)/H24</f>
+        <f t="shared" si="1"/>
         <v>1.9588054385512546</v>
       </c>
       <c r="O25">
-        <f>100*(I25-I24)/I24</f>
+        <f t="shared" si="2"/>
         <v>3.7858200395403729</v>
       </c>
     </row>
@@ -12242,23 +14135,23 @@
         <v>20.541330599714399</v>
       </c>
       <c r="K26">
+        <f t="shared" si="3"/>
+        <v>0.19038020580923504</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="3"/>
+        <v>5.6703698682144035</v>
+      </c>
+      <c r="M26">
         <f t="shared" si="0"/>
-        <v>0.19038020580923504</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="0"/>
-        <v>5.6703698682144035</v>
-      </c>
-      <c r="M26">
-        <f>100*(G26-G25)/G25</f>
         <v>0.32316603067207461</v>
       </c>
       <c r="N26">
-        <f>100*(H26-H25)/H25</f>
+        <f t="shared" si="1"/>
         <v>2.1838018341472769</v>
       </c>
       <c r="O26">
-        <f>100*(I26-I25)/I25</f>
+        <f t="shared" si="2"/>
         <v>5.065612931723428</v>
       </c>
     </row>
@@ -12291,23 +14184,23 @@
         <v>21.971359793350601</v>
       </c>
       <c r="K27">
+        <f t="shared" si="3"/>
+        <v>0.10900912609689781</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="3"/>
+        <v>3.1940860608407347</v>
+      </c>
+      <c r="M27">
         <f t="shared" si="0"/>
-        <v>0.10900912609689781</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="0"/>
-        <v>3.1940860608407347</v>
-      </c>
-      <c r="M27">
-        <f>100*(G27-G26)/G26</f>
         <v>1.4079526963417945</v>
       </c>
       <c r="N27">
-        <f>100*(H27-H26)/H26</f>
+        <f t="shared" si="1"/>
         <v>9.8522316637901017</v>
       </c>
       <c r="O27">
-        <f>100*(I27-I26)/I26</f>
+        <f t="shared" si="2"/>
         <v>6.9617164608415596</v>
       </c>
     </row>
@@ -12340,23 +14233,23 @@
         <v>23.346612832786899</v>
       </c>
       <c r="K28">
+        <f t="shared" si="3"/>
+        <v>9.1937545330875448E-2</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="3"/>
+        <v>2.6785272382567449</v>
+      </c>
+      <c r="M28">
         <f t="shared" si="0"/>
-        <v>9.1937545330875448E-2</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="0"/>
-        <v>2.6785272382567449</v>
-      </c>
-      <c r="M28">
-        <f>100*(G28-G27)/G27</f>
         <v>1.2750726030319011</v>
       </c>
       <c r="N28">
-        <f>100*(H28-H27)/H27</f>
+        <f t="shared" si="1"/>
         <v>8.5822336952348763</v>
       </c>
       <c r="O28">
-        <f>100*(I28-I27)/I27</f>
+        <f t="shared" si="2"/>
         <v>6.2592987069125527</v>
       </c>
     </row>
@@ -12389,23 +14282,23 @@
         <v>24.645943920814801</v>
       </c>
       <c r="K29">
+        <f t="shared" si="3"/>
+        <v>8.2838322602430611E-2</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="3"/>
+        <v>2.3876697915023191</v>
+      </c>
+      <c r="M29">
         <f t="shared" si="0"/>
-        <v>8.2838322602430611E-2</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="0"/>
-        <v>2.3876697915023191</v>
-      </c>
-      <c r="M29">
-        <f>100*(G29-G28)/G28</f>
         <v>1.1066243611240376</v>
       </c>
       <c r="N29">
-        <f>100*(H29-H28)/H28</f>
+        <f t="shared" si="1"/>
         <v>7.2296769505510285</v>
       </c>
       <c r="O29">
-        <f>100*(I29-I28)/I28</f>
+        <f t="shared" si="2"/>
         <v>5.565394420740903</v>
       </c>
     </row>
@@ -12438,23 +14331,23 @@
         <v>25.512764410160401</v>
       </c>
       <c r="K30">
+        <f t="shared" si="3"/>
+        <v>2.1056068724842149E-2</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="3"/>
+        <v>0.58525718258094372</v>
+      </c>
+      <c r="M30">
         <f t="shared" si="0"/>
-        <v>2.1056068724842149E-2</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="0"/>
-        <v>0.58525718258094372</v>
-      </c>
-      <c r="M30">
-        <f>100*(G30-G29)/G29</f>
         <v>0.88482505129810463</v>
       </c>
       <c r="N30">
-        <f>100*(H30-H29)/H29</f>
+        <f t="shared" si="1"/>
         <v>5.5676853489037326</v>
       </c>
       <c r="O30">
-        <f>100*(I30-I29)/I29</f>
+        <f t="shared" si="2"/>
         <v>3.5170918676542295</v>
       </c>
     </row>
@@ -12487,23 +14380,23 @@
         <v>26.419969206669499</v>
       </c>
       <c r="K31">
+        <f t="shared" si="3"/>
+        <v>3.6563386961207527E-2</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="3"/>
+        <v>1.006638843938408</v>
+      </c>
+      <c r="M31">
         <f t="shared" si="0"/>
-        <v>3.6563386961207527E-2</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="0"/>
-        <v>1.006638843938408</v>
-      </c>
-      <c r="M31">
-        <f>100*(G31-G30)/G30</f>
         <v>0.78704977650565611</v>
       </c>
       <c r="N31">
-        <f>100*(H31-H30)/H30</f>
+        <f t="shared" si="1"/>
         <v>4.8342827907226873</v>
       </c>
       <c r="O31">
-        <f>100*(I31-I30)/I30</f>
+        <f t="shared" si="2"/>
         <v>3.5558859162584771</v>
       </c>
     </row>
@@ -12536,23 +14429,23 @@
         <v>27.000492039323898</v>
       </c>
       <c r="K32">
+        <f t="shared" si="3"/>
+        <v>-9.9611712472722491E-3</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="3"/>
+        <v>-0.27391997696672249</v>
+      </c>
+      <c r="M32">
         <f t="shared" si="0"/>
-        <v>-9.9611712472722491E-3</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="0"/>
-        <v>-0.27391997696672249</v>
-      </c>
-      <c r="M32">
-        <f>100*(G32-G31)/G31</f>
         <v>0.66663562247513009</v>
       </c>
       <c r="N32">
-        <f>100*(H32-H31)/H31</f>
+        <f t="shared" si="1"/>
         <v>3.9717240159269918</v>
       </c>
       <c r="O32">
-        <f>100*(I32-I31)/I31</f>
+        <f t="shared" si="2"/>
         <v>2.1972880744609302</v>
       </c>
     </row>
@@ -12585,23 +14478,23 @@
         <v>27.772513585181699</v>
       </c>
       <c r="K33">
+        <f t="shared" si="3"/>
+        <v>2.7317828309600029E-2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="3"/>
+        <v>0.72095302400714578</v>
+      </c>
+      <c r="M33">
         <f t="shared" si="0"/>
-        <v>2.7317828309600029E-2</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="0"/>
-        <v>0.72095302400714578</v>
-      </c>
-      <c r="M33">
-        <f>100*(G33-G32)/G32</f>
         <v>0.62553017109105324</v>
       </c>
       <c r="N33">
-        <f>100*(H33-H32)/H32</f>
+        <f t="shared" si="1"/>
         <v>3.6509351242880452</v>
       </c>
       <c r="O33">
-        <f>100*(I33-I32)/I32</f>
+        <f t="shared" si="2"/>
         <v>2.8592869520059754</v>
       </c>
     </row>
@@ -12634,23 +14527,23 @@
         <v>28.236265368269802</v>
       </c>
       <c r="K34">
+        <f t="shared" si="3"/>
+        <v>-6.3981614002357864E-4</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="3"/>
+        <v>-2.3985227418377084E-2</v>
+      </c>
+      <c r="M34">
         <f t="shared" si="0"/>
-        <v>-6.3981614002357864E-4</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="0"/>
-        <v>-2.3985227418377084E-2</v>
-      </c>
-      <c r="M34">
-        <f>100*(G34-G33)/G33</f>
         <v>0.45553978726408545</v>
       </c>
       <c r="N34">
-        <f>100*(H34-H33)/H33</f>
+        <f t="shared" si="1"/>
         <v>2.5935273518601818</v>
       </c>
       <c r="O34">
-        <f>100*(I34-I33)/I33</f>
+        <f t="shared" si="2"/>
         <v>1.6698228688077497</v>
       </c>
     </row>
@@ -12683,23 +14576,23 @@
         <v>28.388430185770201</v>
       </c>
       <c r="K35">
+        <f t="shared" si="3"/>
+        <v>6.4430243767571926E-3</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="3"/>
+        <v>0.15020286366156663</v>
+      </c>
+      <c r="M35">
         <f t="shared" si="0"/>
-        <v>6.4430243767571926E-3</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="0"/>
-        <v>0.15020286366156663</v>
-      </c>
-      <c r="M35">
-        <f>100*(G35-G34)/G34</f>
         <v>0.11361202267376264</v>
       </c>
       <c r="N35">
-        <f>100*(H35-H34)/H34</f>
+        <f t="shared" si="1"/>
         <v>0.62644886403647804</v>
       </c>
       <c r="O35">
-        <f>100*(I35-I34)/I34</f>
+        <f t="shared" si="2"/>
         <v>0.53889852470147293</v>
       </c>
     </row>
@@ -12732,23 +14625,23 @@
         <v>28.252182590897899</v>
       </c>
       <c r="K36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-7.6750058854904556E-3</v>
       </c>
       <c r="L36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.19716707585101953</v>
       </c>
       <c r="M36">
-        <f>100*(G36-G35)/G35</f>
+        <f t="shared" ref="M36:M65" si="5">100*(G36-G35)/G35</f>
         <v>-8.1888425119280545E-2</v>
       </c>
       <c r="N36">
-        <f>100*(H36-H35)/H35</f>
+        <f t="shared" ref="N36:N65" si="6">100*(H36-H35)/H35</f>
         <v>-0.44875379294154327</v>
       </c>
       <c r="O36">
-        <f>100*(I36-I35)/I35</f>
+        <f t="shared" ref="O36:O65" si="7">100*(I36-I35)/I35</f>
         <v>-0.47994057431395493</v>
       </c>
     </row>
@@ -12781,23 +14674,23 @@
         <v>28.268095959920199</v>
       </c>
       <c r="K37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-2.9156247339779132E-2</v>
       </c>
       <c r="L37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.69062902994993014</v>
       </c>
       <c r="M37">
-        <f>100*(G37-G36)/G36</f>
+        <f t="shared" si="5"/>
         <v>0.18372837493786581</v>
       </c>
       <c r="N37">
-        <f>100*(H37-H36)/H36</f>
+        <f t="shared" si="6"/>
         <v>0.97992607195742687</v>
       </c>
       <c r="O37">
-        <f>100*(I37-I36)/I36</f>
+        <f t="shared" si="7"/>
         <v>5.6326158062658782E-2</v>
       </c>
     </row>
@@ -12830,23 +14723,23 @@
         <v>28.335938933703702</v>
       </c>
       <c r="K38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-9.8909589270753107E-3</v>
       </c>
       <c r="L38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.2356284000035509</v>
       </c>
       <c r="M38">
-        <f>100*(G38-G37)/G37</f>
+        <f t="shared" si="5"/>
         <v>0.12282141177440375</v>
       </c>
       <c r="N38">
-        <f>100*(H38-H37)/H37</f>
+        <f t="shared" si="6"/>
         <v>0.64000819963920519</v>
       </c>
       <c r="O38">
-        <f>100*(I38-I37)/I37</f>
+        <f t="shared" si="7"/>
         <v>0.23999838503340776</v>
       </c>
     </row>
@@ -12879,23 +14772,23 @@
         <v>28.425470698361501</v>
       </c>
       <c r="K39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.0856116702820244E-2</v>
       </c>
       <c r="L39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.23396894436980897</v>
       </c>
       <c r="M39">
-        <f>100*(G39-G38)/G38</f>
+        <f t="shared" si="5"/>
         <v>2.3667806409803337E-2</v>
       </c>
       <c r="N39">
-        <f>100*(H39-H38)/H38</f>
+        <f t="shared" si="6"/>
         <v>0.11876764689698538</v>
       </c>
       <c r="O39">
-        <f>100*(I39-I38)/I38</f>
+        <f t="shared" si="7"/>
         <v>0.31596540657174871</v>
       </c>
     </row>
@@ -12928,23 +14821,23 @@
         <v>28.2626428655064</v>
       </c>
       <c r="K40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1.7342347907548187E-2</v>
       </c>
       <c r="L40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.38600517777433302</v>
       </c>
       <c r="M40">
-        <f>100*(G40-G39)/G39</f>
+        <f t="shared" si="5"/>
         <v>-4.4721900163413285E-2</v>
       </c>
       <c r="N40">
-        <f>100*(H40-H39)/H39</f>
+        <f t="shared" si="6"/>
         <v>-0.23141264540603518</v>
       </c>
       <c r="O40">
-        <f>100*(I40-I39)/I39</f>
+        <f t="shared" si="7"/>
         <v>-0.57282369950161005</v>
       </c>
     </row>
@@ -12977,23 +14870,23 @@
         <v>28.076843926600599</v>
       </c>
       <c r="K41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-2.1706917518023013E-2</v>
       </c>
       <c r="L41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.46814375283068532</v>
       </c>
       <c r="M41">
-        <f>100*(G41-G40)/G40</f>
+        <f t="shared" si="5"/>
         <v>-3.8684110090763564E-2</v>
       </c>
       <c r="N41">
-        <f>100*(H41-H40)/H40</f>
+        <f t="shared" si="6"/>
         <v>-0.19691071945453553</v>
       </c>
       <c r="O41">
-        <f>100*(I41-I40)/I40</f>
+        <f t="shared" si="7"/>
         <v>-0.65740114889454504</v>
       </c>
     </row>
@@ -13026,23 +14919,23 @@
         <v>27.9299885248941</v>
       </c>
       <c r="K42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-3.1261931459544659E-2</v>
       </c>
       <c r="L42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.65530352361379285</v>
       </c>
       <c r="M42">
-        <f>100*(G42-G41)/G41</f>
+        <f t="shared" si="5"/>
         <v>5.5103849753058633E-2</v>
       </c>
       <c r="N42">
-        <f>100*(H42-H41)/H41</f>
+        <f t="shared" si="6"/>
         <v>0.26540536874150755</v>
       </c>
       <c r="O42">
-        <f>100*(I42-I41)/I41</f>
+        <f t="shared" si="7"/>
         <v>-0.52304811071505675</v>
       </c>
     </row>
@@ -13075,23 +14968,23 @@
         <v>27.8763257365691</v>
       </c>
       <c r="K43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-3.16244789191715E-2</v>
       </c>
       <c r="L43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.65250412886996789</v>
       </c>
       <c r="M43">
-        <f>100*(G43-G42)/G42</f>
+        <f t="shared" si="5"/>
         <v>0.14210353081079133</v>
       </c>
       <c r="N43">
-        <f>100*(H43-H42)/H42</f>
+        <f t="shared" si="6"/>
         <v>0.67990030577126725</v>
       </c>
       <c r="O43">
-        <f>100*(I43-I42)/I42</f>
+        <f t="shared" si="7"/>
         <v>-0.19213322725560492</v>
       </c>
     </row>
@@ -13124,23 +15017,23 @@
         <v>27.7032185407169</v>
       </c>
       <c r="K44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-5.8819004646224304E-2</v>
       </c>
       <c r="L44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1.1861872375351001</v>
       </c>
       <c r="M44">
-        <f>100*(G44-G43)/G43</f>
+        <f t="shared" si="5"/>
         <v>0.19544130200435422</v>
       </c>
       <c r="N44">
-        <f>100*(H44-H43)/H43</f>
+        <f t="shared" si="6"/>
         <v>0.91416794758102604</v>
       </c>
       <c r="O44">
-        <f>100*(I44-I43)/I43</f>
+        <f t="shared" si="7"/>
         <v>-0.62098282782336811</v>
       </c>
     </row>
@@ -13173,23 +15066,23 @@
         <v>27.672584876303201</v>
       </c>
       <c r="K45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-5.3941994628740123E-2</v>
       </c>
       <c r="L45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1.0808308740785046</v>
       </c>
       <c r="M45">
-        <f>100*(G45-G44)/G44</f>
+        <f t="shared" si="5"/>
         <v>0.28765943959553181</v>
       </c>
       <c r="N45">
-        <f>100*(H45-H44)/H44</f>
+        <f t="shared" si="6"/>
         <v>1.3194612458679638</v>
       </c>
       <c r="O45">
-        <f>100*(I45-I44)/I44</f>
+        <f t="shared" si="7"/>
         <v>-0.11057799789102175</v>
       </c>
     </row>
@@ -13222,23 +15115,23 @@
         <v>27.523012431932798</v>
       </c>
       <c r="K46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-7.0639704101287656E-2</v>
       </c>
       <c r="L46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1.3994921649320999</v>
       </c>
       <c r="M46">
-        <f>100*(G46-G45)/G45</f>
+        <f t="shared" si="5"/>
         <v>0.2771826009535896</v>
       </c>
       <c r="N46">
-        <f>100*(H46-H45)/H45</f>
+        <f t="shared" si="6"/>
         <v>1.2356433866496481</v>
       </c>
       <c r="O46">
-        <f>100*(I46-I45)/I45</f>
+        <f t="shared" si="7"/>
         <v>-0.54050767226478269</v>
       </c>
     </row>
@@ -13271,23 +15164,23 @@
         <v>27.776797161981701</v>
       </c>
       <c r="K47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-6.3050050773430469E-2</v>
       </c>
       <c r="L47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1.2579126962895497</v>
       </c>
       <c r="M47">
-        <f>100*(G47-G46)/G46</f>
+        <f t="shared" si="5"/>
         <v>0.55504682585834308</v>
       </c>
       <c r="N47">
-        <f>100*(H47-H46)/H46</f>
+        <f t="shared" si="6"/>
         <v>2.4463436286023374</v>
       </c>
       <c r="O47">
-        <f>100*(I47-I46)/I46</f>
+        <f t="shared" si="7"/>
         <v>0.92208195115464942</v>
       </c>
     </row>
@@ -13320,23 +15213,23 @@
         <v>27.834047270172601</v>
       </c>
       <c r="K48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-8.7537220968216437E-2</v>
       </c>
       <c r="L48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1.7450673865703004</v>
       </c>
       <c r="M48">
-        <f>100*(G48-G47)/G47</f>
+        <f t="shared" si="5"/>
         <v>0.51178580954876063</v>
       </c>
       <c r="N48">
-        <f>100*(H48-H47)/H47</f>
+        <f t="shared" si="6"/>
         <v>2.1889877780330633</v>
       </c>
       <c r="O48">
-        <f>100*(I48-I47)/I47</f>
+        <f t="shared" si="7"/>
         <v>0.20610766553480911</v>
       </c>
     </row>
@@ -13369,23 +15262,23 @@
         <v>27.879077900913899</v>
       </c>
       <c r="K49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-8.8083480127440661E-2</v>
       </c>
       <c r="L49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1.7639631195871006</v>
       </c>
       <c r="M49">
-        <f>100*(G49-G48)/G48</f>
+        <f t="shared" si="5"/>
         <v>0.48820369676352882</v>
       </c>
       <c r="N49">
-        <f>100*(H49-H48)/H48</f>
+        <f t="shared" si="6"/>
         <v>2.0294359899302084</v>
       </c>
       <c r="O49">
-        <f>100*(I49-I48)/I48</f>
+        <f t="shared" si="7"/>
         <v>0.16178254748296525</v>
       </c>
     </row>
@@ -13418,23 +15311,23 @@
         <v>27.896940828256401</v>
       </c>
       <c r="K50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-8.9165244317283232E-2</v>
       </c>
       <c r="L50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1.7931642965886394</v>
       </c>
       <c r="M50">
-        <f>100*(G50-G49)/G49</f>
+        <f t="shared" si="5"/>
         <v>0.45783903514178625</v>
       </c>
       <c r="N50">
-        <f>100*(H50-H49)/H49</f>
+        <f t="shared" si="6"/>
         <v>1.8505843926798315</v>
       </c>
       <c r="O50">
-        <f>100*(I50-I49)/I49</f>
+        <f t="shared" si="7"/>
         <v>6.4072877180478147E-2</v>
       </c>
     </row>
@@ -13467,23 +15360,23 @@
         <v>27.9418834734443</v>
       </c>
       <c r="K51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-9.0277514404083797E-2</v>
       </c>
       <c r="L51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1.8263361002226344</v>
       </c>
       <c r="M51">
-        <f>100*(G51-G50)/G50</f>
+        <f t="shared" si="5"/>
         <v>0.46777849722011827</v>
       </c>
       <c r="N51">
-        <f>100*(H51-H50)/H50</f>
+        <f t="shared" si="6"/>
         <v>1.8444157649094819</v>
       </c>
       <c r="O51">
-        <f>100*(I51-I50)/I50</f>
+        <f t="shared" si="7"/>
         <v>0.16110241429188082</v>
       </c>
     </row>
@@ -13516,23 +15409,23 @@
         <v>27.7412916178308</v>
       </c>
       <c r="K52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.11212670040022155</v>
       </c>
       <c r="L52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-2.2638369201711299</v>
       </c>
       <c r="M52">
-        <f>100*(G52-G51)/G51</f>
+        <f t="shared" si="5"/>
         <v>0.38305687140304423</v>
       </c>
       <c r="N52">
-        <f>100*(H52-H51)/H51</f>
+        <f t="shared" si="6"/>
         <v>1.4584347633755232</v>
       </c>
       <c r="O52">
-        <f>100*(I52-I51)/I51</f>
+        <f t="shared" si="7"/>
         <v>-0.7178895288291498</v>
       </c>
     </row>
@@ -13565,23 +15458,23 @@
         <v>27.857220089756598</v>
       </c>
       <c r="K53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-7.9754045297978221E-2</v>
       </c>
       <c r="L53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1.6340909845045088</v>
       </c>
       <c r="M53">
-        <f>100*(G53-G52)/G52</f>
+        <f t="shared" si="5"/>
         <v>0.43976356122863869</v>
       </c>
       <c r="N53">
-        <f>100*(H53-H52)/H52</f>
+        <f t="shared" si="6"/>
         <v>1.6392913611146289</v>
       </c>
       <c r="O53">
-        <f>100*(I53-I52)/I52</f>
+        <f t="shared" si="7"/>
         <v>0.41789140002149311</v>
       </c>
     </row>
@@ -13614,23 +15507,23 @@
         <v>27.707643585965599</v>
       </c>
       <c r="K54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-9.0198258962351757E-2</v>
       </c>
       <c r="L54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1.8475386747839229</v>
       </c>
       <c r="M54">
-        <f>100*(G54-G53)/G53</f>
+        <f t="shared" si="5"/>
         <v>0.29737596353968082</v>
       </c>
       <c r="N54">
-        <f>100*(H54-H53)/H53</f>
+        <f t="shared" si="6"/>
         <v>1.0747607210570651</v>
       </c>
       <c r="O54">
-        <f>100*(I54-I53)/I53</f>
+        <f t="shared" si="7"/>
         <v>-0.5369398070197271</v>
       </c>
     </row>
@@ -13663,23 +15556,23 @@
         <v>27.627102952134202</v>
       </c>
       <c r="K55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-8.9752729788687771E-2</v>
       </c>
       <c r="L55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1.8467279774999346</v>
       </c>
       <c r="M55">
-        <f>100*(G55-G54)/G54</f>
+        <f t="shared" si="5"/>
         <v>0.33231067540869258</v>
       </c>
       <c r="N55">
-        <f>100*(H55-H54)/H54</f>
+        <f t="shared" si="6"/>
         <v>1.1749839050104505</v>
       </c>
       <c r="O55">
-        <f>100*(I55-I54)/I54</f>
+        <f t="shared" si="7"/>
         <v>-0.29068020014589918</v>
       </c>
     </row>
@@ -13712,23 +15605,23 @@
         <v>27.473788867949398</v>
       </c>
       <c r="K56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.11164958377204053</v>
       </c>
       <c r="L56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-2.3023701055430403</v>
       </c>
       <c r="M56">
-        <f>100*(G56-G55)/G55</f>
+        <f t="shared" si="5"/>
         <v>0.36557294455818101</v>
       </c>
       <c r="N56">
-        <f>100*(H56-H55)/H55</f>
+        <f t="shared" si="6"/>
         <v>1.2602305635431743</v>
       </c>
       <c r="O56">
-        <f>100*(I56-I55)/I55</f>
+        <f t="shared" si="7"/>
         <v>-0.5549408653177641</v>
       </c>
     </row>
@@ -13761,23 +15654,23 @@
         <v>27.435591299428001</v>
       </c>
       <c r="K57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-9.7152404641880255E-2</v>
       </c>
       <c r="L57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-2.0274214435730049</v>
       </c>
       <c r="M57">
-        <f>100*(G57-G56)/G56</f>
+        <f t="shared" si="5"/>
         <v>0.36693438096570341</v>
       </c>
       <c r="N57">
-        <f>100*(H57-H56)/H56</f>
+        <f t="shared" si="6"/>
         <v>1.2374898274648867</v>
       </c>
       <c r="O57">
-        <f>100*(I57-I56)/I56</f>
+        <f t="shared" si="7"/>
         <v>-0.13903276575717652</v>
       </c>
     </row>
@@ -13810,23 +15703,23 @@
         <v>27.297608421274401</v>
       </c>
       <c r="K58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.11038692778110616</v>
       </c>
       <c r="L58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-2.3171987602748381</v>
       </c>
       <c r="M58">
-        <f>100*(G58-G57)/G57</f>
+        <f t="shared" si="5"/>
         <v>0.34588647102661829</v>
       </c>
       <c r="N58">
-        <f>100*(H58-H57)/H57</f>
+        <f t="shared" si="6"/>
         <v>1.1377473898281771</v>
       </c>
       <c r="O58">
-        <f>100*(I58-I57)/I57</f>
+        <f t="shared" si="7"/>
         <v>-0.50293385933503587</v>
       </c>
     </row>
@@ -13859,23 +15752,23 @@
         <v>27.258728107345501</v>
       </c>
       <c r="K59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.11150230677475545</v>
       </c>
       <c r="L59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-2.3706534164723814</v>
       </c>
       <c r="M59">
-        <f>100*(G59-G58)/G58</f>
+        <f t="shared" si="5"/>
         <v>0.39587735408599911</v>
       </c>
       <c r="N59">
-        <f>100*(H59-H58)/H58</f>
+        <f t="shared" si="6"/>
         <v>1.2769490822383041</v>
       </c>
       <c r="O59">
-        <f>100*(I59-I58)/I58</f>
+        <f t="shared" si="7"/>
         <v>-0.14243120982934968</v>
       </c>
     </row>
@@ -13908,23 +15801,23 @@
         <v>27.454774261686701</v>
       </c>
       <c r="K60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.12334098679017413</v>
       </c>
       <c r="L60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-2.6803696353011515</v>
       </c>
       <c r="M60">
-        <f>100*(G60-G59)/G59</f>
+        <f t="shared" si="5"/>
         <v>0.55575502883145955</v>
       </c>
       <c r="N60">
-        <f>100*(H60-H59)/H59</f>
+        <f t="shared" si="6"/>
         <v>1.7731397147341665</v>
       </c>
       <c r="O60">
-        <f>100*(I60-I59)/I59</f>
+        <f t="shared" si="7"/>
         <v>0.71920506917698401</v>
       </c>
     </row>
@@ -13957,23 +15850,23 @@
         <v>28.072804645417399</v>
       </c>
       <c r="K61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-9.130072867177863E-2</v>
       </c>
       <c r="L61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-2.0657815220325952</v>
       </c>
       <c r="M61">
-        <f>100*(G61-G60)/G60</f>
+        <f t="shared" si="5"/>
         <v>0.65686601059513694</v>
       </c>
       <c r="N61">
-        <f>100*(H61-H60)/H60</f>
+        <f t="shared" si="6"/>
         <v>2.0974421530150251</v>
       </c>
       <c r="O61">
-        <f>100*(I61-I60)/I60</f>
+        <f t="shared" si="7"/>
         <v>2.2510852860777768</v>
       </c>
     </row>
@@ -14006,23 +15899,23 @@
         <v>28.583211564978701</v>
       </c>
       <c r="K62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.10557183413958943</v>
       </c>
       <c r="L62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-2.4607614584715209</v>
       </c>
       <c r="M62">
-        <f>100*(G62-G61)/G61</f>
+        <f t="shared" si="5"/>
         <v>0.61979216133475346</v>
       </c>
       <c r="N62">
-        <f>100*(H62-H61)/H61</f>
+        <f t="shared" si="6"/>
         <v>1.9683251290340986</v>
       </c>
       <c r="O62">
-        <f>100*(I62-I61)/I61</f>
+        <f t="shared" si="7"/>
         <v>1.8181543526133581</v>
       </c>
     </row>
@@ -14055,23 +15948,23 @@
         <v>29.129769465210298</v>
       </c>
       <c r="K63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-7.7557174774848525E-2</v>
       </c>
       <c r="L63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1.8712842148275417</v>
       </c>
       <c r="M63">
-        <f>100*(G63-G62)/G62</f>
+        <f t="shared" si="5"/>
         <v>0.52830733028470078</v>
       </c>
       <c r="N63">
-        <f>100*(H63-H62)/H62</f>
+        <f t="shared" si="6"/>
         <v>1.6708328884435679</v>
       </c>
       <c r="O63">
-        <f>100*(I63-I62)/I62</f>
+        <f t="shared" si="7"/>
         <v>1.9121640652209368</v>
       </c>
     </row>
@@ -14104,23 +15997,23 @@
         <v>29.4838942188311</v>
       </c>
       <c r="K64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.11317315028785394</v>
       </c>
       <c r="L64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-2.7881332911592347</v>
       </c>
       <c r="M64">
-        <f>100*(G64-G63)/G63</f>
+        <f t="shared" si="5"/>
         <v>0.5208062107698197</v>
       </c>
       <c r="N64">
-        <f>100*(H64-H63)/H63</f>
+        <f t="shared" si="6"/>
         <v>1.6329097558823353</v>
       </c>
       <c r="O64">
-        <f>100*(I64-I63)/I63</f>
+        <f t="shared" si="7"/>
         <v>1.2156799045173814</v>
       </c>
     </row>
@@ -14153,23 +16046,23 @@
         <v>29.807596319040101</v>
       </c>
       <c r="K65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-6.6204213301260029E-2</v>
       </c>
       <c r="L65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1.6798598877947404</v>
       </c>
       <c r="M65">
-        <f>100*(G65-G64)/G64</f>
+        <f t="shared" si="5"/>
         <v>0.3535917955868268</v>
       </c>
       <c r="N65">
-        <f>100*(H65-H64)/H64</f>
+        <f t="shared" si="6"/>
         <v>1.0965173699986543</v>
       </c>
       <c r="O65">
-        <f>100*(I65-I64)/I64</f>
+        <f t="shared" si="7"/>
         <v>1.0978946600692094</v>
       </c>
     </row>
@@ -14187,15 +16080,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW64"/>
+  <dimension ref="A1:BC64"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AD15" sqref="AD15"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AH1" activeCellId="1" sqref="AG1:AG1048576 AH1:AH1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:55">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -14344,7 +16237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:49">
+    <row r="2" spans="1:55">
       <c r="A2">
         <v>58371.936477838302</v>
       </c>
@@ -14492,8 +16385,11 @@
       <c r="AW2">
         <v>10.807243513033301</v>
       </c>
+      <c r="BC2" s="2">
+        <v>39173</v>
+      </c>
     </row>
-    <row r="3" spans="1:49">
+    <row r="3" spans="1:55">
       <c r="A3">
         <v>58891.846238850703</v>
       </c>
@@ -14641,8 +16537,11 @@
       <c r="AW3">
         <v>10.064830538303401</v>
       </c>
+      <c r="BC3" s="2">
+        <v>39234</v>
+      </c>
     </row>
-    <row r="4" spans="1:49">
+    <row r="4" spans="1:55">
       <c r="A4">
         <v>59324.657640232101</v>
       </c>
@@ -14790,8 +16689,11 @@
       <c r="AW4">
         <v>9.7198890482245908</v>
       </c>
+      <c r="BC4" s="2">
+        <v>39264</v>
+      </c>
     </row>
-    <row r="5" spans="1:49">
+    <row r="5" spans="1:55">
       <c r="A5">
         <v>60083.1934750215</v>
       </c>
@@ -14939,8 +16841,11 @@
       <c r="AW5">
         <v>10.1813306138574</v>
       </c>
+      <c r="BC5" s="2">
+        <v>39295</v>
+      </c>
     </row>
-    <row r="6" spans="1:49">
+    <row r="6" spans="1:55">
       <c r="A6">
         <v>61043.1368912381</v>
       </c>
@@ -15088,8 +16993,11 @@
       <c r="AW6">
         <v>11.882539625393299</v>
       </c>
+      <c r="BC6" s="2">
+        <v>39326</v>
+      </c>
     </row>
-    <row r="7" spans="1:49">
+    <row r="7" spans="1:55">
       <c r="A7">
         <v>60696.358897644997</v>
       </c>
@@ -15237,8 +17145,11 @@
       <c r="AW7">
         <v>12.508672037174801</v>
       </c>
+      <c r="BC7" s="2">
+        <v>39356</v>
+      </c>
     </row>
-    <row r="8" spans="1:49">
+    <row r="8" spans="1:55">
       <c r="A8">
         <v>61615.5286326571</v>
       </c>
@@ -15386,8 +17297,11 @@
       <c r="AW8">
         <v>13.3995662129006</v>
       </c>
+      <c r="BC8" s="2">
+        <v>39417</v>
+      </c>
     </row>
-    <row r="9" spans="1:49">
+    <row r="9" spans="1:55">
       <c r="A9">
         <v>61644.715164522902</v>
       </c>
@@ -15535,8 +17449,11 @@
       <c r="AW9">
         <v>13.538490842902</v>
       </c>
+      <c r="BC9" s="2">
+        <v>39448</v>
+      </c>
     </row>
-    <row r="10" spans="1:49">
+    <row r="10" spans="1:55">
       <c r="A10">
         <v>61587.184057772203</v>
       </c>
@@ -15684,8 +17601,11 @@
       <c r="AW10">
         <v>13.785151467023301</v>
       </c>
+      <c r="BC10" s="2">
+        <v>39479</v>
+      </c>
     </row>
-    <row r="11" spans="1:49">
+    <row r="11" spans="1:55">
       <c r="A11">
         <v>62330.405801017798</v>
       </c>
@@ -15833,8 +17753,11 @@
       <c r="AW11">
         <v>13.8414410000992</v>
       </c>
+      <c r="BC11" s="2">
+        <v>39508</v>
+      </c>
     </row>
-    <row r="12" spans="1:49">
+    <row r="12" spans="1:55">
       <c r="A12">
         <v>62354.1118643558</v>
       </c>
@@ -15982,8 +17905,11 @@
       <c r="AW12">
         <v>14.323988569274601</v>
       </c>
+      <c r="BC12" s="2">
+        <v>39539</v>
+      </c>
     </row>
-    <row r="13" spans="1:49">
+    <row r="13" spans="1:55">
       <c r="A13">
         <v>61844.9621766899</v>
       </c>
@@ -16131,8 +18057,11 @@
       <c r="AW13">
         <v>14.899847711262099</v>
       </c>
+      <c r="BC13" s="2">
+        <v>39600</v>
+      </c>
     </row>
-    <row r="14" spans="1:49">
+    <row r="14" spans="1:55">
       <c r="A14">
         <v>62726.711485092601</v>
       </c>
@@ -16280,8 +18209,11 @@
       <c r="AW14">
         <v>15.5464940866679</v>
       </c>
+      <c r="BC14" s="2">
+        <v>39630</v>
+      </c>
     </row>
-    <row r="15" spans="1:49">
+    <row r="15" spans="1:55">
       <c r="A15">
         <v>63331.112288937598</v>
       </c>
@@ -16429,8 +18361,11 @@
       <c r="AW15">
         <v>16.842510008419602</v>
       </c>
+      <c r="BC15" s="2">
+        <v>39661</v>
+      </c>
     </row>
-    <row r="16" spans="1:49">
+    <row r="16" spans="1:55">
       <c r="A16">
         <v>63194.529640989102</v>
       </c>
@@ -16578,8 +18513,11 @@
       <c r="AW16">
         <v>18.811233238076699</v>
       </c>
+      <c r="BC16" s="2">
+        <v>39692</v>
+      </c>
     </row>
-    <row r="17" spans="1:49">
+    <row r="17" spans="1:55">
       <c r="A17">
         <v>63208.963451882497</v>
       </c>
@@ -16727,8 +18665,11 @@
       <c r="AW17">
         <v>20.415325846466001</v>
       </c>
+      <c r="BC17" s="2">
+        <v>39722</v>
+      </c>
     </row>
-    <row r="18" spans="1:49">
+    <row r="18" spans="1:55">
       <c r="A18">
         <v>63357.282509738303</v>
       </c>
@@ -16876,8 +18817,11 @@
       <c r="AW18">
         <v>22.750212327154198</v>
       </c>
+      <c r="BC18" s="2">
+        <v>39783</v>
+      </c>
     </row>
-    <row r="19" spans="1:49">
+    <row r="19" spans="1:55">
       <c r="A19">
         <v>62413.886556787802</v>
       </c>
@@ -17025,8 +18969,11 @@
       <c r="AW19">
         <v>23.596950519889599</v>
       </c>
+      <c r="BC19" s="2">
+        <v>39814</v>
+      </c>
     </row>
-    <row r="20" spans="1:49">
+    <row r="20" spans="1:55">
       <c r="A20">
         <v>62241.029790364097</v>
       </c>
@@ -17174,8 +19121,11 @@
       <c r="AW20">
         <v>23.938405153761</v>
       </c>
+      <c r="BC20" s="2">
+        <v>39845</v>
+      </c>
     </row>
-    <row r="21" spans="1:49">
+    <row r="21" spans="1:55">
       <c r="A21">
         <v>63316.228203238898</v>
       </c>
@@ -17323,8 +19273,11 @@
       <c r="AW21">
         <v>23.453355743864599</v>
       </c>
+      <c r="BC21" s="2">
+        <v>39873</v>
+      </c>
     </row>
-    <row r="22" spans="1:49">
+    <row r="22" spans="1:55">
       <c r="A22">
         <v>63176.154059863402</v>
       </c>
@@ -17472,8 +19425,11 @@
       <c r="AW22">
         <v>22.431754271487101</v>
       </c>
+      <c r="BC22" s="2">
+        <v>39904</v>
+      </c>
     </row>
-    <row r="23" spans="1:49">
+    <row r="23" spans="1:55">
       <c r="A23">
         <v>62472.376378252498</v>
       </c>
@@ -17621,8 +19577,11 @@
       <c r="AW23">
         <v>21.619942114792799</v>
       </c>
+      <c r="BC23" s="2">
+        <v>39965</v>
+      </c>
     </row>
-    <row r="24" spans="1:49">
+    <row r="24" spans="1:55">
       <c r="A24">
         <v>64044.182071501396</v>
       </c>
@@ -17770,8 +19729,11 @@
       <c r="AW24">
         <v>20.4606706077493</v>
       </c>
+      <c r="BC24" s="2">
+        <v>39995</v>
+      </c>
     </row>
-    <row r="25" spans="1:49">
+    <row r="25" spans="1:55">
       <c r="A25">
         <v>63603.306992302103</v>
       </c>
@@ -17919,8 +19881,11 @@
       <c r="AW25">
         <v>20.7001562067842</v>
       </c>
+      <c r="BC25" s="2">
+        <v>40026</v>
+      </c>
     </row>
-    <row r="26" spans="1:49">
+    <row r="26" spans="1:55">
       <c r="A26">
         <v>63535.733094211202</v>
       </c>
@@ -18068,8 +20033,11 @@
       <c r="AW26">
         <v>21.8770009350111</v>
       </c>
+      <c r="BC26" s="2">
+        <v>40057</v>
+      </c>
     </row>
-    <row r="27" spans="1:49">
+    <row r="27" spans="1:55">
       <c r="A27">
         <v>63435.536964365201</v>
       </c>
@@ -18217,8 +20185,11 @@
       <c r="AW27">
         <v>23.406155152584599</v>
       </c>
+      <c r="BC27" s="2">
+        <v>40087</v>
+      </c>
     </row>
-    <row r="28" spans="1:49">
+    <row r="28" spans="1:55">
       <c r="A28">
         <v>63385.617711921797</v>
       </c>
@@ -18366,8 +20337,11 @@
       <c r="AW28">
         <v>25.092673824819201</v>
       </c>
+      <c r="BC28" s="2">
+        <v>40148</v>
+      </c>
     </row>
-    <row r="29" spans="1:49">
+    <row r="29" spans="1:55">
       <c r="A29">
         <v>61959.257736635402</v>
       </c>
@@ -18515,8 +20489,11 @@
       <c r="AW29">
         <v>26.289223275323501</v>
       </c>
+      <c r="BC29" s="2">
+        <v>40179</v>
+      </c>
     </row>
-    <row r="30" spans="1:49">
+    <row r="30" spans="1:55">
       <c r="A30">
         <v>62607.406561076197</v>
       </c>
@@ -18664,8 +20641,11 @@
       <c r="AW30">
         <v>26.713476682372299</v>
       </c>
+      <c r="BC30" s="2">
+        <v>40210</v>
+      </c>
     </row>
-    <row r="31" spans="1:49">
+    <row r="31" spans="1:55">
       <c r="A31">
         <v>61643.708296919001</v>
       </c>
@@ -18813,8 +20793,11 @@
       <c r="AW31">
         <v>26.209156096599202</v>
       </c>
+      <c r="BC31" s="2">
+        <v>40238</v>
+      </c>
     </row>
-    <row r="32" spans="1:49">
+    <row r="32" spans="1:55">
       <c r="A32">
         <v>61728.4304678072</v>
       </c>
@@ -18962,8 +20945,11 @@
       <c r="AW32">
         <v>25.236378563072201</v>
       </c>
+      <c r="BC32" s="2">
+        <v>40269</v>
+      </c>
     </row>
-    <row r="33" spans="1:49">
+    <row r="33" spans="1:55">
       <c r="A33">
         <v>61140.552701956898</v>
       </c>
@@ -19111,8 +21097,11 @@
       <c r="AW33">
         <v>24.447902711199902</v>
       </c>
+      <c r="BC33" s="2">
+        <v>40330</v>
+      </c>
     </row>
-    <row r="34" spans="1:49">
+    <row r="34" spans="1:55">
       <c r="A34">
         <v>59500.669249735802</v>
       </c>
@@ -19260,8 +21249,11 @@
       <c r="AW34">
         <v>23.432758059126201</v>
       </c>
+      <c r="BC34" s="2">
+        <v>40360</v>
+      </c>
     </row>
-    <row r="35" spans="1:49">
+    <row r="35" spans="1:55">
       <c r="A35">
         <v>60390.673909686797</v>
       </c>
@@ -19409,8 +21401,11 @@
       <c r="AW35">
         <v>24.116850312099899</v>
       </c>
+      <c r="BC35" s="2">
+        <v>40391</v>
+      </c>
     </row>
-    <row r="36" spans="1:49">
+    <row r="36" spans="1:55">
       <c r="A36">
         <v>59499.4282565268</v>
       </c>
@@ -19558,8 +21553,11 @@
       <c r="AW36">
         <v>25.665643636734099</v>
       </c>
+      <c r="BC36" s="2">
+        <v>40422</v>
+      </c>
     </row>
-    <row r="37" spans="1:49">
+    <row r="37" spans="1:55">
       <c r="A37">
         <v>59589.501962052898</v>
       </c>
@@ -19707,8 +21705,11 @@
       <c r="AW37">
         <v>27.060233105422601</v>
       </c>
+      <c r="BC37" s="2">
+        <v>40452</v>
+      </c>
     </row>
-    <row r="38" spans="1:49">
+    <row r="38" spans="1:55">
       <c r="A38">
         <v>60526.588701021697</v>
       </c>
@@ -19856,8 +21857,11 @@
       <c r="AW38">
         <v>28.578498295852199</v>
       </c>
+      <c r="BC38" s="2">
+        <v>40513</v>
+      </c>
     </row>
-    <row r="39" spans="1:49">
+    <row r="39" spans="1:55">
       <c r="A39">
         <v>59408.540032262899</v>
       </c>
@@ -20005,8 +22009,11 @@
       <c r="AW39">
         <v>28.429219000540002</v>
       </c>
+      <c r="BC39" s="2">
+        <v>40544</v>
+      </c>
     </row>
-    <row r="40" spans="1:49">
+    <row r="40" spans="1:55">
       <c r="A40">
         <v>59392.700729926997</v>
       </c>
@@ -20154,8 +22161,11 @@
       <c r="AW40">
         <v>28.7633907262551</v>
       </c>
+      <c r="BC40" s="2">
+        <v>40603</v>
+      </c>
     </row>
-    <row r="41" spans="1:49">
+    <row r="41" spans="1:55">
       <c r="A41">
         <v>58135.240716797998</v>
       </c>
@@ -20303,8 +22313,11 @@
       <c r="AW41">
         <v>27.970224189713999</v>
       </c>
+      <c r="BC41" s="2">
+        <v>40634</v>
+      </c>
     </row>
-    <row r="42" spans="1:49">
+    <row r="42" spans="1:55">
       <c r="A42">
         <v>57514.387739506099</v>
       </c>
@@ -20452,8 +22465,11 @@
       <c r="AW42">
         <v>27.502158133497101</v>
       </c>
+      <c r="BC42" s="2">
+        <v>40695</v>
+      </c>
     </row>
-    <row r="43" spans="1:49">
+    <row r="43" spans="1:55">
       <c r="A43">
         <v>56888.454711814898</v>
       </c>
@@ -20601,8 +22617,11 @@
       <c r="AW43">
         <v>26.600399658649199</v>
       </c>
+      <c r="BC43" s="2">
+        <v>40725</v>
+      </c>
     </row>
-    <row r="44" spans="1:49">
+    <row r="44" spans="1:55">
       <c r="A44">
         <v>56865.440302161202</v>
       </c>
@@ -20750,8 +22769,11 @@
       <c r="AW44">
         <v>26.659335374174301</v>
       </c>
+      <c r="BC44" s="2">
+        <v>40787</v>
+      </c>
     </row>
-    <row r="45" spans="1:49">
+    <row r="45" spans="1:55">
       <c r="A45">
         <v>56194.312602847698</v>
       </c>
@@ -20899,8 +22921,11 @@
       <c r="AW45">
         <v>27.999019278930302</v>
       </c>
+      <c r="BC45" s="2">
+        <v>40817</v>
+      </c>
     </row>
-    <row r="46" spans="1:49">
+    <row r="46" spans="1:55">
       <c r="A46">
         <v>56162.415721885598</v>
       </c>
@@ -21048,8 +23073,11 @@
       <c r="AW46">
         <v>29.6835209653212</v>
       </c>
+      <c r="BC46" s="2">
+        <v>40878</v>
+      </c>
     </row>
-    <row r="47" spans="1:49">
+    <row r="47" spans="1:55">
       <c r="A47">
         <v>55348.916162582304</v>
       </c>
@@ -21197,8 +23225,11 @@
       <c r="AW47">
         <v>30.485317618033001</v>
       </c>
+      <c r="BC47" s="2">
+        <v>40909</v>
+      </c>
     </row>
-    <row r="48" spans="1:49">
+    <row r="48" spans="1:55">
       <c r="A48">
         <v>54509.857838884003</v>
       </c>
@@ -21346,8 +23377,11 @@
       <c r="AW48">
         <v>31.501703638893499</v>
       </c>
+      <c r="BC48" s="2">
+        <v>40969</v>
+      </c>
     </row>
-    <row r="49" spans="1:49">
+    <row r="49" spans="1:55">
       <c r="A49">
         <v>53541.578138571502</v>
       </c>
@@ -21495,8 +23529,11 @@
       <c r="AW49">
         <v>31.284121881674</v>
       </c>
+      <c r="BC49" s="2">
+        <v>41000</v>
+      </c>
     </row>
-    <row r="50" spans="1:49">
+    <row r="50" spans="1:55">
       <c r="A50">
         <v>53548.175153238997</v>
       </c>
@@ -21644,8 +23681,11 @@
       <c r="AW50">
         <v>30.441320401746601</v>
       </c>
+      <c r="BC50" s="2">
+        <v>41061</v>
+      </c>
     </row>
-    <row r="51" spans="1:49">
+    <row r="51" spans="1:55">
       <c r="A51">
         <v>52755.849211498396</v>
       </c>
@@ -21793,8 +23833,11 @@
       <c r="AW51">
         <v>29.793112651029599</v>
       </c>
+      <c r="BC51" s="2">
+        <v>41091</v>
+      </c>
     </row>
-    <row r="52" spans="1:49">
+    <row r="52" spans="1:55">
       <c r="A52">
         <v>53514.566548062103</v>
       </c>
@@ -21942,8 +23985,11 @@
       <c r="AW52">
         <v>29.916360105461099</v>
       </c>
+      <c r="BC52" s="2">
+        <v>41153</v>
+      </c>
     </row>
-    <row r="53" spans="1:49">
+    <row r="53" spans="1:55">
       <c r="A53">
         <v>52888.176744564997</v>
       </c>
@@ -22091,8 +24137,11 @@
       <c r="AW53">
         <v>30.9414965631263</v>
       </c>
+      <c r="BC53" s="2">
+        <v>41183</v>
+      </c>
     </row>
-    <row r="54" spans="1:49">
+    <row r="54" spans="1:55">
       <c r="A54">
         <v>52549.205349687203</v>
       </c>
@@ -22240,8 +24289,11 @@
       <c r="AW54">
         <v>31.828997246111101</v>
       </c>
+      <c r="BC54" s="2">
+        <v>41244</v>
+      </c>
     </row>
-    <row r="55" spans="1:49">
+    <row r="55" spans="1:55">
       <c r="A55">
         <v>52371.863397119399</v>
       </c>
@@ -22389,8 +24441,11 @@
       <c r="AW55">
         <v>31.629275097367199</v>
       </c>
+      <c r="BC55" s="2">
+        <v>41275</v>
+      </c>
     </row>
-    <row r="56" spans="1:49">
+    <row r="56" spans="1:55">
       <c r="A56">
         <v>51624.278014418996</v>
       </c>
@@ -22538,8 +24593,11 @@
       <c r="AW56">
         <v>31.6773385323485</v>
       </c>
+      <c r="BC56" s="2">
+        <v>41334</v>
+      </c>
     </row>
-    <row r="57" spans="1:49">
+    <row r="57" spans="1:55">
       <c r="A57">
         <v>50212.076664147797</v>
       </c>
@@ -22687,8 +24745,11 @@
       <c r="AW57">
         <v>30.497350675282</v>
       </c>
+      <c r="BC57" s="2">
+        <v>41365</v>
+      </c>
     </row>
-    <row r="58" spans="1:49">
+    <row r="58" spans="1:55">
       <c r="A58">
         <v>50368.307051308497</v>
       </c>
@@ -22836,8 +24897,11 @@
       <c r="AW58">
         <v>29.732193995007002</v>
       </c>
+      <c r="BC58" s="2">
+        <v>41426</v>
+      </c>
     </row>
-    <row r="59" spans="1:49">
+    <row r="59" spans="1:55">
       <c r="A59">
         <v>49577.292720929901</v>
       </c>
@@ -22985,8 +25049,11 @@
       <c r="AW59">
         <v>28.697634386552402</v>
       </c>
+      <c r="BC59" s="2">
+        <v>41456</v>
+      </c>
     </row>
-    <row r="60" spans="1:49">
+    <row r="60" spans="1:55">
       <c r="A60">
         <v>50413.089961625003</v>
       </c>
@@ -23134,8 +25201,11 @@
       <c r="AW60">
         <v>29.383987280410501</v>
       </c>
+      <c r="BC60" s="2">
+        <v>41518</v>
+      </c>
     </row>
-    <row r="61" spans="1:49">
+    <row r="61" spans="1:55">
       <c r="A61">
         <v>50757.847849682097</v>
       </c>
@@ -23283,8 +25353,11 @@
       <c r="AW61">
         <v>29.4864399672066</v>
       </c>
+      <c r="BC61" s="2">
+        <v>41548</v>
+      </c>
     </row>
-    <row r="62" spans="1:49">
+    <row r="62" spans="1:55">
       <c r="A62">
         <v>50917.386725906203</v>
       </c>
@@ -23432,8 +25505,11 @@
       <c r="AW62">
         <v>30.208648722979401</v>
       </c>
+      <c r="BC62" s="2">
+        <v>41609</v>
+      </c>
     </row>
-    <row r="63" spans="1:49">
+    <row r="63" spans="1:55">
       <c r="A63">
         <v>49957.332957825798</v>
       </c>
@@ -23581,8 +25657,11 @@
       <c r="AW63">
         <v>30.299119034692499</v>
       </c>
+      <c r="BC63" s="2">
+        <v>41640</v>
+      </c>
     </row>
-    <row r="64" spans="1:49">
+    <row r="64" spans="1:55">
       <c r="A64">
         <v>50586.157798165099</v>
       </c>
@@ -23729,6 +25808,9 @@
       </c>
       <c r="AW64">
         <v>30.223707992246801</v>
+      </c>
+      <c r="BC64" s="2">
+        <v>41699</v>
       </c>
     </row>
   </sheetData>
